--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2180 +418,2428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.786163356388119</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>51.81879369038134</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.005857854651279477</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.006260031964182331</v>
+      </c>
+      <c r="E2">
         <v>2.264261890083861</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.767851190349178</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>13.28468398232064</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.6002567245713231</v>
+      </c>
+      <c r="I2">
+        <v>16.91757708199768</v>
+      </c>
+      <c r="J2">
         <v>3.596093210666159</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>18.11124937600731</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>11.98429238629494</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>72.99395405950128</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.1811666519493123</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>2.863177134413339</v>
       </c>
-      <c r="N2" t="n">
-        <v>180.6575447830068</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>198.1757807668887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.328444288117381</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>38.53980110437458</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.006101931928416124</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.006520866629356595</v>
+      </c>
+      <c r="E3">
         <v>2.358606135504022</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.726738371968964</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>12.97573784319691</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.4224028802538939</v>
+      </c>
+      <c r="I3">
+        <v>11.90496165029466</v>
+      </c>
+      <c r="J3">
         <v>3.749481072732487</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>18.88376712190335</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>8.422922479046919</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>51.30235450408347</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.138539204431827</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>2.189488396904317</v>
       </c>
-      <c r="N3" t="n">
-        <v>141.6219824541926</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>153.9497659194421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.436696612746965</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>41.68033405530676</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.006590086482689413</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.007042535959705122</v>
+      </c>
+      <c r="E4">
         <v>2.547294626344343</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.43894864330747</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>10.81311486933076</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.6002567245713231</v>
+      </c>
+      <c r="I4">
+        <v>16.91757708199768</v>
+      </c>
+      <c r="J4">
         <v>3.084800337111728</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>15.53619022302049</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>8.309863116912062</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>50.61373229597497</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.06394117127622788</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>1.010533106263531</v>
       </c>
-      <c r="N4" t="n">
-        <v>136.542039144078</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>154.060325400124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.339034189439841</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>38.84702715392228</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.008054550145509282</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.008607543950750708</v>
+      </c>
+      <c r="E5">
         <v>3.113360098865309</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.891189645489818</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>14.21152239969186</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.4890980718729298</v>
+      </c>
+      <c r="I5">
+        <v>13.78469243718329</v>
+      </c>
+      <c r="J5">
         <v>2.590550559342446</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>13.04696637513323</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>7.518447581968053</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>45.79337683921543</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.1172254806730844</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>1.852644028149807</v>
       </c>
-      <c r="N5" t="n">
-        <v>130.3293989020366</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>144.6037424048981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.390807040349642</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>40.34902117393334</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.009763091085465797</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.01043338660697055</v>
+      </c>
+      <c r="E6">
         <v>3.773769816806436</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.603399916828324</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>12.0488994258257</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.6336043203808408</v>
+      </c>
+      <c r="I6">
+        <v>17.857442475442</v>
+      </c>
+      <c r="J6">
         <v>2.99958485818599</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>15.10701369752269</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>7.801095987305199</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>47.51493235948669</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.1278823425524558</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>2.021066212527062</v>
       </c>
-      <c r="N6" t="n">
-        <v>134.747235922409</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>153.2389530137533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.367273926299731</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>39.66629661938285</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.007810472868372638</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.00834670928557644</v>
+      </c>
+      <c r="E7">
         <v>3.019015853445148</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.973415282250245</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>14.82941467793932</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.4779822066030906</v>
+      </c>
+      <c r="I7">
+        <v>13.47140397270186</v>
+      </c>
+      <c r="J7">
         <v>3.37453296545924</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>16.99539040971302</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>7.970685030507486</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>48.54786567164945</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1172254806730844</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>1.852644028149807</v>
       </c>
-      <c r="N7" t="n">
-        <v>139.7215704183378</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>153.6714928340599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.440226579854452</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>41.78274273848932</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.008542704699782572</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.009129213281099233</v>
+      </c>
+      <c r="E8">
         <v>3.302048589705631</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.356723006547043</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>10.19522259108328</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.5113298024126085</v>
+      </c>
+      <c r="I8">
+        <v>14.41126936614617</v>
+      </c>
+      <c r="J8">
         <v>3.033671049756285</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>15.27868430772181</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>6.105205555282329</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>37.18559923785916</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.1491960663111984</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>2.357910581281573</v>
       </c>
-      <c r="N8" t="n">
-        <v>122.1957730085919</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>137.1189586857319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.965015023167429</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>57.00750030496501</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.004881545542732899</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.005216693303485276</v>
+      </c>
+      <c r="E9">
         <v>1.886884908403218</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.713446013094087</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>20.39044518216657</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.6891836467300377</v>
+      </c>
+      <c r="I9">
+        <v>19.42388479784919</v>
+      </c>
+      <c r="J9">
         <v>3.357489869674092</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>16.90955510461346</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>5.935616512080042</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>36.1526659256964</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.1065686187937131</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>1.684221843772552</v>
       </c>
-      <c r="N9" t="n">
-        <v>148.1142908519693</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>168.2276944443093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.39567101028077</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>69.50135965323879</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.006590086482689413</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.007042535959705122</v>
+      </c>
+      <c r="E10">
         <v>2.547294626344343</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.603399916828324</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>12.0488994258257</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.7002995119998769</v>
+      </c>
+      <c r="I10">
+        <v>19.73717326233063</v>
+      </c>
+      <c r="J10">
         <v>2.011085302647425</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>10.12856600174817</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>2.261187242697158</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>13.77244416217006</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.2344509613461689</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>3.705288056299614</v>
       </c>
-      <c r="N10" t="n">
-        <v>120.2162364459092</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>140.6541616697167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.307421832593611</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>66.94114257367448</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.005857854651279477</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.006260031964182331</v>
+      </c>
+      <c r="E11">
         <v>2.264261890083861</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.356723006547043</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>10.19522259108328</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.8225740299681094</v>
+      </c>
+      <c r="I11">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="J11">
         <v>1.431620045952405</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>7.2101656283631</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>1.413242026685725</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>8.607777601356284</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.04262744751748525</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.6736887375090209</v>
       </c>
-      <c r="N11" t="n">
-        <v>102.4497512360176</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>126.456073814925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.660261196221103</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>48.16621732353632</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.008054550145509282</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.008607543950750708</v>
+      </c>
+      <c r="E12">
         <v>3.113360098865309</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1.19227173302619</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>8.95943803458834</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.7781105688887519</v>
+      </c>
+      <c r="I12">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="J12">
         <v>0.9032840766128264</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>4.549271170276717</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>1.922009156292585</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>11.70657753784455</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.02131372375874263</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.3368443687545105</v>
       </c>
-      <c r="N12" t="n">
-        <v>82.53890296992269</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>105.2477590463174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.197835505140385</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>34.7506798266194</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.01269201841110553</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.01356340258906172</v>
+      </c>
+      <c r="E13">
         <v>4.905900761848365</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.8633691859844819</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>6.487868921598456</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.6669519161903589</v>
+      </c>
+      <c r="I13">
+        <v>18.79730786888631</v>
+      </c>
+      <c r="J13">
         <v>0.7328531187613497</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>3.690918119281111</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>1.978538837360014</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>12.0508886418988</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.05328430939685657</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.842110921886276</v>
       </c>
-      <c r="N13" t="n">
-        <v>67.56694016818659</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>87.03207133744121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.8977883010040411</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>26.04594175610077</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.007322318314099348</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.007825039955227913</v>
+      </c>
+      <c r="E14">
         <v>2.830327362604826</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.4522410021823479</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3.398407530361095</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.6558360509205194</v>
+      </c>
+      <c r="I14">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="J14">
         <v>0.460163586198987</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>2.31755323768814</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>1.017534259213722</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>6.197599872976525</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.05328430939685657</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.842110921886276</v>
       </c>
-      <c r="N14" t="n">
-        <v>44.52027445792768</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>63.66063263489421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.5659713929003193</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>16.41952553693903</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.009763091085465797</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.01043338660697055</v>
+      </c>
+      <c r="E15">
         <v>3.773769816806436</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.4522410021823479</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3.398407530361095</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.3668235539046974</v>
+      </c>
+      <c r="I15">
+        <v>10.33851932788747</v>
+      </c>
+      <c r="J15">
         <v>0.4090342988435441</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>2.060047322389457</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.7348858538765769</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>4.476044352705269</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.02131372375874263</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.3368443687545105</v>
       </c>
-      <c r="N15" t="n">
-        <v>32.6578482906028</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>43.36386146791646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.3329935638062168</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>9.660552446889284</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.005613777374142833</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.005999197299008067</v>
+      </c>
+      <c r="E16">
         <v>2.169917644663701</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.1644512735208537</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1.235784556494944</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.1667379790475897</v>
+      </c>
+      <c r="I16">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="J16">
         <v>0.3749481072732488</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>1.888376712190336</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>1.243652983483437</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>7.57484428919353</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.02131372375874263</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.3368443687545105</v>
       </c>
-      <c r="N16" t="n">
-        <v>25.00929344740294</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>29.87574381359698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.2012081251267248</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.837294941406597</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.004149313711322964</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.004434189307962484</v>
+      </c>
+      <c r="E17">
         <v>1.603852172142735</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.04111281838021343</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.3089461391237359</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.06669519161903591</v>
+      </c>
+      <c r="I17">
+        <v>1.879730786888631</v>
+      </c>
+      <c r="J17">
         <v>0.5453790651247257</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>2.746729763185943</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>1.187123302416008</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>7.230533185139279</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17">
         <v>0.01065686187937131</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17">
         <v>0.1684221843772552</v>
       </c>
-      <c r="N17" t="n">
-        <v>19.88540787201391</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>21.83211872611822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1506119299194198</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.369437149123068</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.006346009205552767</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.006781701294530859</v>
+      </c>
+      <c r="E18">
         <v>2.452950380924182</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.08222563676042687</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.6178922782474718</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.02223173053967863</v>
+      </c>
+      <c r="I18">
+        <v>0.6265769289628772</v>
+      </c>
+      <c r="J18">
         <v>0.460163586198987</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>2.31755323768814</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.8479452160114348</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>5.164666560813774</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>16.46979198489246</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>17.11903633648399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.08824917768716001</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.560217079564298</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.002928927325639739</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.003130015982091166</v>
+      </c>
+      <c r="E19">
         <v>1.132130945041931</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.1233384551406403</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.9268384173712075</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.01111586526983932</v>
+      </c>
+      <c r="I19">
+        <v>0.3132884644814386</v>
+      </c>
+      <c r="J19">
         <v>0.3579050114881012</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>1.802541407090775</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>1.243652983483437</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>7.57484428919353</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>15.81264669338672</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>16.13725211179445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1200188816545376</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3.481895228207444</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.002196695494229804</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.002347511986568374</v>
+      </c>
+      <c r="E20">
         <v>0.8490982087814478</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.1233384551406403</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.9268384173712075</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.08892692215871453</v>
+      </c>
+      <c r="I20">
+        <v>2.506307715851509</v>
+      </c>
+      <c r="J20">
         <v>0.3408619157029535</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>1.716706101991215</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.6783561728091481</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>4.131733248651016</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>12.37104332580384</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>14.9664287803064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.2412144190115705</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>6.997926684142413</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.00341708187991303</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.003651685312439694</v>
+      </c>
+      <c r="E21">
         <v>1.320819435882252</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.1233384551406403</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.9268384173712075</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.05557932634919657</v>
+      </c>
+      <c r="I21">
+        <v>1.566442322407192</v>
+      </c>
+      <c r="J21">
         <v>0.460163586198987</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>2.31755323768814</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>1.413242026685725</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>8.607777601356284</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.03197058563811394</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.5052665531317655</v>
       </c>
-      <c r="N21" t="n">
-        <v>22.94952808412701</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>24.57178433631593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.7154066671172435</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>20.75482645833458</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.004393390988459609</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.004695023973136749</v>
+      </c>
+      <c r="E22">
         <v>1.698196417562896</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.7811435492240553</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>5.869976643350982</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.2445490359364649</v>
+      </c>
+      <c r="I22">
+        <v>6.892346218591646</v>
+      </c>
+      <c r="J22">
         <v>1.056671938679156</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>5.321788916172764</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>2.713424691236592</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>16.52693299460406</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.01065686187937131</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.1684221843772552</v>
       </c>
-      <c r="N22" t="n">
-        <v>55.62184071352743</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>62.75903760104021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.214308684975322</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>35.22858701480472</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.003173004602776384</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.00339085064726543</v>
+      </c>
+      <c r="E23">
         <v>1.226475190462091</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1.06893327788555</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>8.032599617217134</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.6558360509205194</v>
+      </c>
+      <c r="I23">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="J23">
         <v>1.448663141737552</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>7.296000933462662</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>3.730958950450314</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>22.7245328675806</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.1278823425524558</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>2.021066212527062</v>
       </c>
-      <c r="N23" t="n">
-        <v>84.12318123825823</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>103.2632545396281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.907358893745152</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>55.33482514631635</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.003173004602776384</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.00339085064726543</v>
+      </c>
+      <c r="E24">
         <v>1.226475190462091</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1.06893327788555</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>8.032599617217134</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.8225740299681094</v>
+      </c>
+      <c r="I24">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="J24">
         <v>2.164473164713754</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>10.90108374764421</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>4.239726080057173</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>25.82333280406887</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.2237940994667975</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>3.536865871922359</v>
       </c>
-      <c r="N24" t="n">
-        <v>114.4626408981022</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>138.4687791457413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.854409387132856</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>53.79869489857775</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.005369700097006188</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.005738362633833804</v>
+      </c>
+      <c r="E25">
         <v>2.075573399243539</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.151158914645976</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>8.650491895464608</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.7781105688887519</v>
+      </c>
+      <c r="I25">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="J25">
         <v>1.806568153225653</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>9.098542340553434</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>5.087671296068607</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>30.98799936488263</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.04262744751748525</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.6736887375090209</v>
       </c>
-      <c r="N25" t="n">
-        <v>115.2327955349186</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>137.9414672800449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.786163356388119</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>51.81879369038134</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.005857854651279477</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.006260031964182331</v>
+      </c>
+      <c r="E26">
         <v>2.264261890083861</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.767851190349178</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>13.28468398232064</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.6002567245713231</v>
+      </c>
+      <c r="I26">
+        <v>16.91757708199768</v>
+      </c>
+      <c r="J26">
         <v>3.596093210666159</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>18.11124937600731</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>11.98429238629494</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>72.99395405950128</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.1811666519493123</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>2.863177134413339</v>
       </c>
-      <c r="N26" t="n">
-        <v>180.6575447830068</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>198.1757807668887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.457876415391884</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>42.29478615440218</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.006590086482689413</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.007042535959705122</v>
+      </c>
+      <c r="E27">
         <v>2.547294626344343</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.151158914645976</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>8.650491895464608</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.5891408593014837</v>
+      </c>
+      <c r="I27">
+        <v>16.60428861751624</v>
+      </c>
+      <c r="J27">
         <v>3.476791540170124</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>17.51040224031038</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>10.3449316353395</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>63.00893204192801</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.138539204431827</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>2.189488396904317</v>
       </c>
-      <c r="N27" t="n">
-        <v>152.7772831518159</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>169.9711650781106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.566128740021466</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>45.43531910533437</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01171570930255895</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.01252006392836466</v>
+      </c>
+      <c r="E28">
         <v>4.528523780167722</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1.726738371968964</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>12.97573784319691</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.6558360509205194</v>
+      </c>
+      <c r="I28">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="J28">
         <v>2.590550559342446</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>13.04696637513323</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>9.214338013990924</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>56.12270996084299</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.0959117569143418</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>1.515799659395296</v>
       </c>
-      <c r="N28" t="n">
-        <v>148.8304398756112</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>167.9710996855624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.415516810102046</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>41.06588195621133</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.005613777374142833</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.005999197299008067</v>
+      </c>
+      <c r="E29">
         <v>2.169917644663701</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1.562287098448111</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>11.73995328670196</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.7114153772697163</v>
+      </c>
+      <c r="I29">
+        <v>20.05046172681207</v>
+      </c>
+      <c r="J29">
         <v>2.283774835209788</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>11.50193088334114</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>5.822557149945184</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>35.4640437175879</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.02131372375874263</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.3368443687545105</v>
       </c>
-      <c r="N29" t="n">
-        <v>113.3896352520985</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>134.1518977761052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.486116152251774</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>43.11405561986274</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.006101931928416124</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.006520866629356595</v>
+      </c>
+      <c r="E30">
         <v>2.358606135504022</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.480061461687684</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>11.12206100845449</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.5891408593014837</v>
+      </c>
+      <c r="I30">
+        <v>16.60428861751624</v>
+      </c>
+      <c r="J30">
         <v>3.51087773174042</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>17.68207285050951</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>7.122739814496052</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>43.38319911083569</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.08525489503497051</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>1.347377475018042</v>
       </c>
-      <c r="N30" t="n">
-        <v>132.6985241873238</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>149.8923725988425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.519062511921647</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>44.06986999623341</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.006101931928416124</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.006520866629356595</v>
+      </c>
+      <c r="E31">
         <v>2.358606135504022</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.562287098448111</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>11.73995328670196</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.6224884551110017</v>
+      </c>
+      <c r="I31">
+        <v>17.54415401096056</v>
+      </c>
+      <c r="J31">
         <v>2.795067708764218</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>14.07699003632796</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>6.613972684889191</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>40.28439917434742</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.2131372375874263</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>3.368443687545104</v>
       </c>
-      <c r="N31" t="n">
-        <v>128.6078914901989</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>146.7749528909714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.787340012090614</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>51.85292991810889</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.006590086482689413</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.007042535959705122</v>
+      </c>
+      <c r="E32">
         <v>2.547294626344343</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.9867076411251227</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>7.41470733896966</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.6780677814601982</v>
+      </c>
+      <c r="I32">
+        <v>19.11059633336775</v>
+      </c>
+      <c r="J32">
         <v>3.306360582318647</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>16.65204918931478</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>6.218264917417185</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>37.87422144596767</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.1491960663111984</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>2.357910581281573</v>
       </c>
-      <c r="N32" t="n">
-        <v>131.1535724057324</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>150.9426889700374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.965015023167429</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>57.00750030496501</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.004881545542732899</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.005216693303485276</v>
+      </c>
+      <c r="E33">
         <v>1.886884908403218</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>2.713446013094087</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>20.39044518216657</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.6891836467300377</v>
+      </c>
+      <c r="I33">
+        <v>19.42388479784919</v>
+      </c>
+      <c r="J33">
         <v>3.357489869674092</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>16.90955510461346</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>5.935616512080042</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>36.1526659256964</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.1065686187937131</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>1.684221843772552</v>
       </c>
-      <c r="N33" t="n">
-        <v>148.1142908519693</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>168.2276944443093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2.39567101028077</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>69.50135965323879</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.006590086482689413</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.007042535959705122</v>
+      </c>
+      <c r="E34">
         <v>2.547294626344343</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.603399916828324</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>12.0488994258257</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.7002995119998769</v>
+      </c>
+      <c r="I34">
+        <v>19.73717326233063</v>
+      </c>
+      <c r="J34">
         <v>2.011085302647425</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>10.12856600174817</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>2.261187242697158</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>13.77244416217006</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.2344509613461689</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>3.705288056299614</v>
       </c>
-      <c r="N34" t="n">
-        <v>120.2162364459092</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>140.6541616697167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.307421832593611</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>66.94114257367448</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.005857854651279477</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.006260031964182331</v>
+      </c>
+      <c r="E35">
         <v>2.264261890083861</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.356723006547043</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>10.19522259108328</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.8225740299681094</v>
+      </c>
+      <c r="I35">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="J35">
         <v>1.431620045952405</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>7.2101656283631</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>1.413242026685725</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>8.607777601356284</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.04262744751748525</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.6736887375090209</v>
       </c>
-      <c r="N35" t="n">
-        <v>102.4497512360176</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>126.456073814925</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.660261196221103</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>48.16621732353632</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.008054550145509282</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.008607543950750708</v>
+      </c>
+      <c r="E36">
         <v>3.113360098865309</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.19227173302619</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>8.95943803458834</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.7781105688887519</v>
+      </c>
+      <c r="I36">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="J36">
         <v>0.9032840766128264</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>4.549271170276717</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>1.922009156292585</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>11.70657753784455</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.02131372375874263</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.3368443687545105</v>
       </c>
-      <c r="N36" t="n">
-        <v>82.53890296992269</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>105.2477590463174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.197835505140385</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>34.7506798266194</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.01269201841110553</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.01356340258906172</v>
+      </c>
+      <c r="E37">
         <v>4.905900761848365</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.8633691859844819</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>6.487868921598456</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.6669519161903589</v>
+      </c>
+      <c r="I37">
+        <v>18.79730786888631</v>
+      </c>
+      <c r="J37">
         <v>0.7328531187613497</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>3.690918119281111</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>1.978538837360014</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>12.0508886418988</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.05328430939685657</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.842110921886276</v>
       </c>
-      <c r="N37" t="n">
-        <v>67.56694016818659</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>87.03207133744121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.8977883010040411</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>26.04594175610077</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.007322318314099348</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.007825039955227913</v>
+      </c>
+      <c r="E38">
         <v>2.830327362604826</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.4522410021823479</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3.398407530361095</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.6558360509205194</v>
+      </c>
+      <c r="I38">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="J38">
         <v>0.460163586198987</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>2.31755323768814</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>1.017534259213722</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>6.197599872976525</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.05328430939685657</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.842110921886276</v>
       </c>
-      <c r="N38" t="n">
-        <v>44.52027445792768</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>63.66063263489421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.5659713929003193</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>16.41952553693903</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.009763091085465797</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.01043338660697055</v>
+      </c>
+      <c r="E39">
         <v>3.773769816806436</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.4522410021823479</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3.398407530361095</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.3668235539046974</v>
+      </c>
+      <c r="I39">
+        <v>10.33851932788747</v>
+      </c>
+      <c r="J39">
         <v>0.4090342988435441</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>2.060047322389457</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.7348858538765769</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>4.476044352705269</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.02131372375874263</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.3368443687545105</v>
       </c>
-      <c r="N39" t="n">
-        <v>32.6578482906028</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>43.36386146791646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.3329935638062168</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>9.660552446889284</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.005613777374142833</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.005999197299008067</v>
+      </c>
+      <c r="E40">
         <v>2.169917644663701</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.1644512735208537</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1.235784556494944</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.1667379790475897</v>
+      </c>
+      <c r="I40">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="J40">
         <v>0.3749481072732488</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.888376712190336</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>1.243652983483437</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>7.57484428919353</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.02131372375874263</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.3368443687545105</v>
       </c>
-      <c r="N40" t="n">
-        <v>25.00929344740294</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>29.87574381359698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.2012081251267248</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.837294941406597</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.004149313711322964</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.004434189307962484</v>
+      </c>
+      <c r="E41">
         <v>1.603852172142735</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.04111281838021343</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.3089461391237359</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.06669519161903591</v>
+      </c>
+      <c r="I41">
+        <v>1.879730786888631</v>
+      </c>
+      <c r="J41">
         <v>0.5453790651247257</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>2.746729763185943</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>1.187123302416008</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>7.230533185139279</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41">
         <v>0.01065686187937131</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41">
         <v>0.1684221843772552</v>
       </c>
-      <c r="N41" t="n">
-        <v>19.88540787201391</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>21.83211872611822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1506119299194198</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.369437149123068</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.006346009205552767</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.006781701294530859</v>
+      </c>
+      <c r="E42">
         <v>2.452950380924182</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.08222563676042687</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.6178922782474718</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.02223173053967863</v>
+      </c>
+      <c r="I42">
+        <v>0.6265769289628772</v>
+      </c>
+      <c r="J42">
         <v>0.460163586198987</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>2.31755323768814</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.8479452160114348</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>5.164666560813774</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>16.46979198489246</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>17.11903633648399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.08824917768716001</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.560217079564298</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.002928927325639739</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.003130015982091166</v>
+      </c>
+      <c r="E43">
         <v>1.132130945041931</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.1233384551406403</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.9268384173712075</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.01111586526983932</v>
+      </c>
+      <c r="I43">
+        <v>0.3132884644814386</v>
+      </c>
+      <c r="J43">
         <v>0.3579050114881012</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>1.802541407090775</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>1.243652983483437</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>7.57484428919353</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>15.81264669338672</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>16.13725211179445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.1200188816545376</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3.481895228207444</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.002196695494229804</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.002347511986568374</v>
+      </c>
+      <c r="E44">
         <v>0.8490982087814478</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.1233384551406403</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.9268384173712075</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.08892692215871453</v>
+      </c>
+      <c r="I44">
+        <v>2.506307715851509</v>
+      </c>
+      <c r="J44">
         <v>0.3408619157029535</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>1.716706101991215</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.6783561728091481</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>4.131733248651016</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>12.37104332580384</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>14.9664287803064</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.2412144190115705</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>6.997926684142413</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.00341708187991303</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.003651685312439694</v>
+      </c>
+      <c r="E45">
         <v>1.320819435882252</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.1233384551406403</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.9268384173712075</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.05557932634919657</v>
+      </c>
+      <c r="I45">
+        <v>1.566442322407192</v>
+      </c>
+      <c r="J45">
         <v>0.460163586198987</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>2.31755323768814</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>1.413242026685725</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>8.607777601356284</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.03197058563811394</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.5052665531317655</v>
       </c>
-      <c r="N45" t="n">
-        <v>22.94952808412701</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>24.57178433631593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.7154066671172435</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>20.75482645833458</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.004393390988459609</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.004695023973136749</v>
+      </c>
+      <c r="E46">
         <v>1.698196417562896</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.7811435492240553</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>5.869976643350982</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.2445490359364649</v>
+      </c>
+      <c r="I46">
+        <v>6.892346218591646</v>
+      </c>
+      <c r="J46">
         <v>1.056671938679156</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>5.321788916172764</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>2.713424691236592</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>16.52693299460406</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.01065686187937131</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.1684221843772552</v>
       </c>
-      <c r="N46" t="n">
-        <v>55.62184071352743</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>62.75903760104021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.214308684975322</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>35.22858701480472</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.003173004602776384</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.00339085064726543</v>
+      </c>
+      <c r="E47">
         <v>1.226475190462091</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.06893327788555</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>8.032599617217134</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.6558360509205194</v>
+      </c>
+      <c r="I47">
+        <v>18.48401940440487</v>
+      </c>
+      <c r="J47">
         <v>1.448663141737552</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>7.296000933462662</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>3.730958950450314</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>22.7245328675806</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.1278823425524558</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>2.021066212527062</v>
       </c>
-      <c r="N47" t="n">
-        <v>84.12318123825823</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>103.2632545396281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.907358893745152</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>55.33482514631635</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.003173004602776384</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.00339085064726543</v>
+      </c>
+      <c r="E48">
         <v>1.226475190462091</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.06893327788555</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>8.032599617217134</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.8225740299681094</v>
+      </c>
+      <c r="I48">
+        <v>23.18334637162646</v>
+      </c>
+      <c r="J48">
         <v>2.164473164713754</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>10.90108374764421</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>4.239726080057173</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>25.82333280406887</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.2237940994667975</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>3.536865871922359</v>
       </c>
-      <c r="N48" t="n">
-        <v>114.4626408981022</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>138.4687791457413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.854409387132856</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>53.79869489857775</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.005369700097006188</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.005738362633833804</v>
+      </c>
+      <c r="E49">
         <v>2.075573399243539</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.151158914645976</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>8.650491895464608</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.7781105688887519</v>
+      </c>
+      <c r="I49">
+        <v>21.9301925137007</v>
+      </c>
+      <c r="J49">
         <v>1.806568153225653</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>9.098542340553434</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>5.087671296068607</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>30.98799936488263</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.04262744751748525</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.6736887375090209</v>
       </c>
-      <c r="N49" t="n">
-        <v>115.2327955349186</v>
+      <c r="P49">
+        <v>137.9414672800449</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.786163356388119</v>
+        <v>3.028711778223331</v>
       </c>
       <c r="C2">
-        <v>51.81879369038134</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="D2">
-        <v>0.006260031964182331</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E2">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F2">
-        <v>1.767851190349178</v>
+        <v>2.997660714070344</v>
       </c>
       <c r="G2">
-        <v>13.28468398232064</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="H2">
-        <v>0.6002567245713231</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I2">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J2">
-        <v>3.596093210666159</v>
+        <v>6.097723270260007</v>
       </c>
       <c r="K2">
-        <v>18.11124937600731</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="L2">
-        <v>11.98429238629494</v>
+        <v>20.32119143763056</v>
       </c>
       <c r="M2">
-        <v>72.99395405950128</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="N2">
-        <v>0.1811666519493123</v>
+        <v>0.3071956272183992</v>
       </c>
       <c r="O2">
-        <v>2.863177134413339</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="P2">
-        <v>198.1757807668887</v>
+        <v>336.0371934742896</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.328444288117381</v>
+        <v>2.252579445068605</v>
       </c>
       <c r="C3">
-        <v>38.53980110437458</v>
+        <v>65.35009752480902</v>
       </c>
       <c r="D3">
-        <v>0.006520866629356595</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E3">
-        <v>2.358606135504022</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F3">
-        <v>1.726738371968964</v>
+        <v>2.927947674208244</v>
       </c>
       <c r="G3">
-        <v>12.97573784319691</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="H3">
-        <v>0.4224028802538939</v>
+        <v>0.7162483621696465</v>
       </c>
       <c r="I3">
-        <v>11.90496165029466</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="J3">
-        <v>3.749481072732487</v>
+        <v>6.357815732024653</v>
       </c>
       <c r="K3">
-        <v>18.88376712190335</v>
+        <v>32.02030077192308</v>
       </c>
       <c r="L3">
-        <v>8.422922479046919</v>
+        <v>14.28234681229695</v>
       </c>
       <c r="M3">
-        <v>51.30235450408347</v>
+        <v>86.99094894170673</v>
       </c>
       <c r="N3">
-        <v>0.138539204431827</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O3">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P3">
-        <v>153.9497659194421</v>
+        <v>261.0452552547061</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.436696612746965</v>
+        <v>2.436137734657895</v>
       </c>
       <c r="C4">
-        <v>41.68033405530676</v>
+        <v>70.67534905030274</v>
       </c>
       <c r="D4">
-        <v>0.007042535959705122</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E4">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F4">
-        <v>1.43894864330747</v>
+        <v>2.439956395173535</v>
       </c>
       <c r="G4">
-        <v>10.81311486933076</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="H4">
-        <v>0.6002567245713231</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I4">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J4">
-        <v>3.084800337111728</v>
+        <v>5.230748397711191</v>
       </c>
       <c r="K4">
-        <v>15.53619022302049</v>
+        <v>26.34397472599127</v>
       </c>
       <c r="L4">
-        <v>8.309863116912062</v>
+        <v>14.09063745911175</v>
       </c>
       <c r="M4">
-        <v>50.61373229597497</v>
+        <v>85.82328519752278</v>
       </c>
       <c r="N4">
-        <v>0.06394117127622788</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O4">
-        <v>1.010533106263531</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P4">
-        <v>154.060325400124</v>
+        <v>261.2327256784711</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.339034189439841</v>
+        <v>2.270536234267557</v>
       </c>
       <c r="C5">
-        <v>38.84702715392228</v>
+        <v>65.87104604360728</v>
       </c>
       <c r="D5">
-        <v>0.008607543950750708</v>
+        <v>0.0145954006121425</v>
       </c>
       <c r="E5">
-        <v>3.113360098865309</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="F5">
-        <v>1.891189645489818</v>
+        <v>3.206799833656648</v>
       </c>
       <c r="G5">
-        <v>14.21152239969186</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="H5">
-        <v>0.4890980718729298</v>
+        <v>0.8293402088280116</v>
       </c>
       <c r="I5">
-        <v>13.78469243718329</v>
+        <v>23.37404369783255</v>
       </c>
       <c r="J5">
-        <v>2.590550559342446</v>
+        <v>4.39267268758067</v>
       </c>
       <c r="K5">
-        <v>13.04696637513323</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="L5">
-        <v>7.518447581968053</v>
+        <v>12.7486719868154</v>
       </c>
       <c r="M5">
-        <v>45.79337683921543</v>
+        <v>77.64963898823488</v>
       </c>
       <c r="N5">
-        <v>0.1172254806730844</v>
+        <v>0.198773641141317</v>
       </c>
       <c r="O5">
-        <v>1.852644028149807</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="P5">
-        <v>144.6037424048981</v>
+        <v>245.1976501648272</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.390807040349642</v>
+        <v>2.358324981462435</v>
       </c>
       <c r="C6">
-        <v>40.34902117393334</v>
+        <v>68.41790546884344</v>
       </c>
       <c r="D6">
-        <v>0.01043338660697055</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E6">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F6">
-        <v>1.603399916828324</v>
+        <v>2.71880855462194</v>
       </c>
       <c r="G6">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H6">
-        <v>0.6336043203808408</v>
+        <v>1.07437254325447</v>
       </c>
       <c r="I6">
-        <v>17.857442475442</v>
+        <v>30.28001115401034</v>
       </c>
       <c r="J6">
-        <v>2.99958485818599</v>
+        <v>5.086252585619724</v>
       </c>
       <c r="K6">
-        <v>15.10701369752269</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="L6">
-        <v>7.801095987305199</v>
+        <v>13.22794536977838</v>
       </c>
       <c r="M6">
-        <v>47.51493235948669</v>
+        <v>80.56879834869484</v>
       </c>
       <c r="N6">
-        <v>0.1278823425524558</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O6">
-        <v>2.021066212527062</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P6">
-        <v>153.2389530137533</v>
+        <v>259.8399638059295</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.367273926299731</v>
+        <v>2.318421005464764</v>
       </c>
       <c r="C7">
-        <v>39.66629661938285</v>
+        <v>67.26024209373611</v>
       </c>
       <c r="D7">
-        <v>0.00834670928557644</v>
+        <v>0.01415311574510788</v>
       </c>
       <c r="E7">
-        <v>3.019015853445148</v>
+        <v>5.119200794972208</v>
       </c>
       <c r="F7">
-        <v>1.973415282250245</v>
+        <v>3.34622591338085</v>
       </c>
       <c r="G7">
-        <v>14.82941467793932</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="H7">
-        <v>0.4779822066030906</v>
+        <v>0.8104915677182839</v>
       </c>
       <c r="I7">
-        <v>13.47140397270186</v>
+        <v>22.84281543197271</v>
       </c>
       <c r="J7">
-        <v>3.37453296545924</v>
+        <v>5.722034158822189</v>
       </c>
       <c r="K7">
-        <v>16.99539040971302</v>
+        <v>28.81827069473078</v>
       </c>
       <c r="L7">
-        <v>7.970685030507486</v>
+        <v>13.51550939955617</v>
       </c>
       <c r="M7">
-        <v>48.54786567164945</v>
+        <v>82.32029396497082</v>
       </c>
       <c r="N7">
-        <v>0.1172254806730844</v>
+        <v>0.198773641141317</v>
       </c>
       <c r="O7">
-        <v>1.852644028149807</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="P7">
-        <v>153.6714928340599</v>
+        <v>260.5734008925364</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.440226579854452</v>
+        <v>2.442123331057548</v>
       </c>
       <c r="C8">
-        <v>41.78274273848932</v>
+        <v>70.84899855656887</v>
       </c>
       <c r="D8">
-        <v>0.009129213281099233</v>
+        <v>0.01547997034621174</v>
       </c>
       <c r="E8">
-        <v>3.302048589705631</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="F8">
-        <v>1.356723006547043</v>
+        <v>2.300530315449334</v>
       </c>
       <c r="G8">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H8">
-        <v>0.5113298024126085</v>
+        <v>0.8670374910474667</v>
       </c>
       <c r="I8">
-        <v>14.41126936614617</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="J8">
-        <v>3.033671049756285</v>
+        <v>5.144050910456309</v>
       </c>
       <c r="K8">
-        <v>15.27868430772181</v>
+        <v>25.9073342609196</v>
       </c>
       <c r="L8">
-        <v>6.105205555282329</v>
+        <v>10.35230507200047</v>
       </c>
       <c r="M8">
-        <v>37.18559923785916</v>
+        <v>63.05384218593508</v>
       </c>
       <c r="N8">
-        <v>0.1491960663111984</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O8">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P8">
-        <v>137.1189586857319</v>
+        <v>232.5060603801542</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.965015023167429</v>
+        <v>3.331981995805641</v>
       </c>
       <c r="C9">
-        <v>57.00750030496501</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="D9">
-        <v>0.005216693303485276</v>
+        <v>0.008845697340692422</v>
       </c>
       <c r="E9">
-        <v>1.886884908403218</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="F9">
-        <v>2.713446013094087</v>
+        <v>4.601060630898668</v>
       </c>
       <c r="G9">
-        <v>20.39044518216657</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="H9">
-        <v>0.6891836467300377</v>
+        <v>1.168615748803107</v>
       </c>
       <c r="I9">
-        <v>19.42388479784919</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="J9">
-        <v>3.357489869674092</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K9">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L9">
-        <v>5.935616512080042</v>
+        <v>10.06474104222267</v>
       </c>
       <c r="M9">
-        <v>36.1526659256964</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="N9">
-        <v>0.1065686187937131</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O9">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P9">
-        <v>168.2276944443093</v>
+        <v>285.2556557968722</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.39567101028077</v>
+        <v>4.062224756563044</v>
       </c>
       <c r="C10">
-        <v>69.50135965323879</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="D10">
-        <v>0.007042535959705122</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E10">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F10">
-        <v>1.603399916828324</v>
+        <v>2.71880855462194</v>
       </c>
       <c r="G10">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H10">
-        <v>0.7002995119998769</v>
+        <v>1.187464389912835</v>
       </c>
       <c r="I10">
-        <v>19.73717326233063</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="J10">
-        <v>2.011085302647425</v>
+        <v>3.410101165358678</v>
       </c>
       <c r="K10">
-        <v>10.12856600174817</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="L10">
-        <v>2.261187242697158</v>
+        <v>3.83418706370388</v>
       </c>
       <c r="M10">
-        <v>13.77244416217006</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="N10">
-        <v>0.2344509613461689</v>
+        <v>0.397547282282634</v>
       </c>
       <c r="O10">
-        <v>3.705288056299614</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="P10">
-        <v>140.6541616697167</v>
+        <v>238.5005350051718</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.307421832593611</v>
+        <v>3.912584846571772</v>
       </c>
       <c r="C11">
-        <v>66.94114257367448</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="D11">
-        <v>0.006260031964182331</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E11">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F11">
-        <v>1.356723006547043</v>
+        <v>2.300530315449334</v>
       </c>
       <c r="G11">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H11">
-        <v>0.8225740299681094</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I11">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J11">
-        <v>1.431620045952405</v>
+        <v>2.427529643136686</v>
       </c>
       <c r="K11">
-        <v>7.2101656283631</v>
+        <v>12.225933022007</v>
       </c>
       <c r="L11">
-        <v>1.413242026685725</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M11">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N11">
-        <v>0.04262744751748525</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O11">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P11">
-        <v>126.456073814925</v>
+        <v>214.4255164687859</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.660261196221103</v>
+        <v>2.815225506635787</v>
       </c>
       <c r="C12">
-        <v>48.16621732353632</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="D12">
-        <v>0.008607543950750708</v>
+        <v>0.0145954006121425</v>
       </c>
       <c r="E12">
-        <v>3.113360098865309</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="F12">
-        <v>1.19227173302619</v>
+        <v>2.021678156000931</v>
       </c>
       <c r="G12">
-        <v>8.95943803458834</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="H12">
-        <v>0.7781105688887519</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I12">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J12">
-        <v>0.9032840766128264</v>
+        <v>1.531655608169575</v>
       </c>
       <c r="K12">
-        <v>4.549271170276717</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="L12">
-        <v>1.922009156292585</v>
+        <v>3.259059004148297</v>
       </c>
       <c r="M12">
-        <v>11.70657753784455</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="N12">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O12">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P12">
-        <v>105.2477590463174</v>
+        <v>178.4635914263643</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.197835505140385</v>
+        <v>2.031112378281522</v>
       </c>
       <c r="C13">
-        <v>34.7506798266194</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="D13">
-        <v>0.01356340258906172</v>
+        <v>0.0229988130858003</v>
       </c>
       <c r="E13">
-        <v>4.905900761848365</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="F13">
-        <v>0.8633691859844819</v>
+        <v>1.463973837104122</v>
       </c>
       <c r="G13">
-        <v>6.487868921598456</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="H13">
-        <v>0.6669519161903589</v>
+        <v>1.130918466583652</v>
       </c>
       <c r="I13">
-        <v>18.79730786888631</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="J13">
-        <v>0.7328531187613497</v>
+        <v>1.242663983986636</v>
       </c>
       <c r="K13">
-        <v>3.690918119281111</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="L13">
-        <v>1.978538837360014</v>
+        <v>3.354913680740894</v>
       </c>
       <c r="M13">
-        <v>12.0508886418988</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="N13">
-        <v>0.05328430939685657</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O13">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P13">
-        <v>87.03207133744121</v>
+        <v>147.5761209634873</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.8977883010040411</v>
+        <v>1.522336684311201</v>
       </c>
       <c r="C14">
-        <v>26.04594175610077</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="D14">
-        <v>0.007825039955227913</v>
+        <v>0.01326854601103864</v>
       </c>
       <c r="E14">
-        <v>2.830327362604826</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="F14">
-        <v>0.4522410021823479</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G14">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H14">
-        <v>0.6558360509205194</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I14">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J14">
-        <v>0.460163586198987</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K14">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L14">
-        <v>1.017534259213722</v>
+        <v>1.725384178666745</v>
       </c>
       <c r="M14">
-        <v>6.197599872976525</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="N14">
-        <v>0.05328430939685657</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O14">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P14">
-        <v>63.66063263489421</v>
+        <v>107.946290120038</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.5659713929003193</v>
+        <v>0.9596906227440201</v>
       </c>
       <c r="C15">
-        <v>16.41952553693903</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="D15">
-        <v>0.01043338660697055</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E15">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F15">
-        <v>0.4522410021823479</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G15">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H15">
-        <v>0.3668235539046974</v>
+        <v>0.6220051566210086</v>
       </c>
       <c r="I15">
-        <v>10.33851932788747</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="J15">
-        <v>0.4090342988435441</v>
+        <v>0.6935798980390531</v>
       </c>
       <c r="K15">
-        <v>2.060047322389457</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="L15">
-        <v>0.7348858538765769</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M15">
-        <v>4.476044352705269</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="N15">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O15">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P15">
-        <v>43.36386146791646</v>
+        <v>73.5300259673366</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.3329935638062168</v>
+        <v>0.5646412603670639</v>
       </c>
       <c r="C16">
-        <v>9.660552446889284</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="D16">
-        <v>0.005999197299008067</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E16">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F16">
-        <v>0.1644512735208537</v>
+        <v>0.2788521594484041</v>
       </c>
       <c r="G16">
-        <v>1.235784556494944</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="H16">
-        <v>0.1667379790475897</v>
+        <v>0.282729616645913</v>
       </c>
       <c r="I16">
-        <v>4.699326967221578</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="J16">
-        <v>0.3749481072732488</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K16">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L16">
-        <v>1.243652983483437</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M16">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="N16">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O16">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P16">
-        <v>29.87574381359698</v>
+        <v>50.65886994479489</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,49 +1230,49 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.2012081251267248</v>
+        <v>0.3411789947800986</v>
       </c>
       <c r="C17">
-        <v>5.837294941406597</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="D17">
-        <v>0.004434189307962484</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E17">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F17">
-        <v>0.04111281838021343</v>
+        <v>0.06971303986210103</v>
       </c>
       <c r="G17">
-        <v>0.3089461391237359</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="H17">
-        <v>0.06669519161903591</v>
+        <v>0.1130918466583652</v>
       </c>
       <c r="I17">
-        <v>1.879730786888631</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="J17">
-        <v>0.5453790651247257</v>
+        <v>0.924773197385404</v>
       </c>
       <c r="K17">
-        <v>2.746729763185943</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="L17">
-        <v>1.187123302416008</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M17">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="N17">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O17">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P17">
-        <v>21.83211872611822</v>
+        <v>37.01967957907002</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1280,43 +1280,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1506119299194198</v>
+        <v>0.255385446385103</v>
       </c>
       <c r="C18">
-        <v>4.369437149123068</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="D18">
-        <v>0.006781701294530859</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E18">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F18">
-        <v>0.08222563676042687</v>
+        <v>0.1394260797242021</v>
       </c>
       <c r="G18">
-        <v>0.6178922782474718</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H18">
-        <v>0.02223173053967863</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I18">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J18">
-        <v>0.460163586198987</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K18">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L18">
-        <v>0.8479452160114348</v>
+        <v>1.437820148888954</v>
       </c>
       <c r="M18">
-        <v>5.164666560813774</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="P18">
-        <v>17.11903633648399</v>
+        <v>29.02793117925545</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.08824917768716001</v>
+        <v>0.1496399099912714</v>
       </c>
       <c r="C19">
-        <v>2.560217079564298</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="D19">
-        <v>0.003130015982091166</v>
+        <v>0.005307418404415455</v>
       </c>
       <c r="E19">
-        <v>1.132130945041931</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="F19">
-        <v>0.1233384551406403</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G19">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H19">
-        <v>0.01111586526983932</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I19">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J19">
-        <v>0.3579050114881012</v>
+        <v>0.6068824107841715</v>
       </c>
       <c r="K19">
-        <v>1.802541407090775</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="L19">
-        <v>1.243652983483437</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M19">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="P19">
-        <v>16.13725211179445</v>
+        <v>27.36316662434712</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,43 +1368,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1200188816545376</v>
+        <v>0.2035102775881291</v>
       </c>
       <c r="C20">
-        <v>3.481895228207444</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="D20">
-        <v>0.002347511986568374</v>
+        <v>0.00398056380331159</v>
       </c>
       <c r="E20">
-        <v>0.8490982087814478</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="F20">
-        <v>0.1233384551406403</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G20">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H20">
-        <v>0.08892692215871453</v>
+        <v>0.1507891288778203</v>
       </c>
       <c r="I20">
-        <v>2.506307715851509</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="J20">
-        <v>0.3408619157029535</v>
+        <v>0.5779832483658773</v>
       </c>
       <c r="K20">
-        <v>1.716706101991215</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="L20">
-        <v>0.6783561728091481</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M20">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="P20">
-        <v>14.9664287803064</v>
+        <v>25.37785749704129</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1412,49 +1412,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2412144190115705</v>
+        <v>0.4090157539761416</v>
       </c>
       <c r="C21">
-        <v>6.997926684142413</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="D21">
-        <v>0.003651685312439694</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E21">
-        <v>1.320819435882252</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F21">
-        <v>0.1233384551406403</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G21">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H21">
-        <v>0.05557932634919657</v>
+        <v>0.09424320554863769</v>
       </c>
       <c r="I21">
-        <v>1.566442322407192</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="J21">
-        <v>0.460163586198987</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K21">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L21">
-        <v>1.413242026685725</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M21">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N21">
-        <v>0.03197058563811394</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O21">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P21">
-        <v>24.57178433631593</v>
+        <v>41.66519952679657</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1462,49 +1462,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.7154066671172435</v>
+        <v>1.21308087032924</v>
       </c>
       <c r="C22">
-        <v>20.75482645833458</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="D22">
-        <v>0.004695023973136749</v>
+        <v>0.007961127606623181</v>
       </c>
       <c r="E22">
-        <v>1.698196417562896</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="F22">
-        <v>0.7811435492240553</v>
+        <v>1.32454775737992</v>
       </c>
       <c r="G22">
-        <v>5.869976643350982</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="H22">
-        <v>0.2445490359364649</v>
+        <v>0.4146701044140058</v>
       </c>
       <c r="I22">
-        <v>6.892346218591646</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="J22">
-        <v>1.056671938679156</v>
+        <v>1.79174806993422</v>
       </c>
       <c r="K22">
-        <v>5.321788916172764</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="L22">
-        <v>2.713424691236592</v>
+        <v>4.601024476444655</v>
       </c>
       <c r="M22">
-        <v>16.52693299460406</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="N22">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O22">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P22">
-        <v>62.75903760104021</v>
+        <v>106.4174985408943</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1512,49 +1512,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.214308684975322</v>
+        <v>2.059045161479893</v>
       </c>
       <c r="C23">
-        <v>35.22858701480472</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="D23">
-        <v>0.00339085064726543</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E23">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F23">
-        <v>1.06893327788555</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G23">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H23">
-        <v>0.6558360509205194</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I23">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J23">
-        <v>1.448663141737552</v>
+        <v>2.45642880555498</v>
       </c>
       <c r="K23">
-        <v>7.296000933462662</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="L23">
-        <v>3.730958950450314</v>
+        <v>6.326408655111401</v>
       </c>
       <c r="M23">
-        <v>22.7245328675806</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="N23">
-        <v>0.1278823425524558</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O23">
-        <v>2.021066212527062</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P23">
-        <v>103.2632545396281</v>
+        <v>175.0985620454564</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1562,49 +1562,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.907358893745152</v>
+        <v>3.234217254611344</v>
       </c>
       <c r="C24">
-        <v>55.33482514631635</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="D24">
-        <v>0.00339085064726543</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E24">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F24">
-        <v>1.06893327788555</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G24">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H24">
-        <v>0.8225740299681094</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I24">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J24">
-        <v>2.164473164713754</v>
+        <v>3.670193627123323</v>
       </c>
       <c r="K24">
-        <v>10.90108374764421</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="L24">
-        <v>4.239726080057173</v>
+        <v>7.189100744444771</v>
       </c>
       <c r="M24">
-        <v>25.82333280406887</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="N24">
-        <v>0.2237940994667975</v>
+        <v>0.3794769512697871</v>
       </c>
       <c r="O24">
-        <v>3.536865871922359</v>
+        <v>5.997294304564</v>
       </c>
       <c r="P24">
-        <v>138.4687791457413</v>
+        <v>234.7948863775612</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1612,49 +1612,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.854409387132856</v>
+        <v>3.144433308616582</v>
       </c>
       <c r="C25">
-        <v>53.79869489857775</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="D25">
-        <v>0.005738362633833804</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E25">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F25">
-        <v>1.151158914645976</v>
+        <v>1.951965116138829</v>
       </c>
       <c r="G25">
-        <v>8.650491895464608</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="H25">
-        <v>0.7781105688887519</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I25">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J25">
-        <v>1.806568153225653</v>
+        <v>3.06331121633915</v>
       </c>
       <c r="K25">
-        <v>9.098542340553434</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="L25">
-        <v>5.087671296068607</v>
+        <v>8.626920893333725</v>
       </c>
       <c r="M25">
-        <v>30.98799936488263</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="N25">
-        <v>0.04262744751748525</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O25">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P25">
-        <v>137.9414672800449</v>
+        <v>233.900748866163</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1662,49 +1662,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.786163356388119</v>
+        <v>3.028711778223331</v>
       </c>
       <c r="C26">
-        <v>51.81879369038134</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="D26">
-        <v>0.006260031964182331</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E26">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F26">
-        <v>1.767851190349178</v>
+        <v>2.997660714070344</v>
       </c>
       <c r="G26">
-        <v>13.28468398232064</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="H26">
-        <v>0.6002567245713231</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I26">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J26">
-        <v>3.596093210666159</v>
+        <v>6.097723270260007</v>
       </c>
       <c r="K26">
-        <v>18.11124937600731</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="L26">
-        <v>11.98429238629494</v>
+        <v>20.32119143763056</v>
       </c>
       <c r="M26">
-        <v>72.99395405950128</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="N26">
-        <v>0.1811666519493123</v>
+        <v>0.3071956272183992</v>
       </c>
       <c r="O26">
-        <v>2.863177134413339</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="P26">
-        <v>198.1757807668887</v>
+        <v>336.0371934742896</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1712,49 +1712,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.457876415391884</v>
+        <v>2.472051313055801</v>
       </c>
       <c r="C27">
-        <v>42.29478615440218</v>
+        <v>71.71724608789937</v>
       </c>
       <c r="D27">
-        <v>0.007042535959705122</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E27">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F27">
-        <v>1.151158914645976</v>
+        <v>1.951965116138829</v>
       </c>
       <c r="G27">
-        <v>8.650491895464608</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="H27">
-        <v>0.5891408593014837</v>
+        <v>0.9989779788155593</v>
       </c>
       <c r="I27">
-        <v>16.60428861751624</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="J27">
-        <v>3.476791540170124</v>
+        <v>5.89542913333195</v>
       </c>
       <c r="K27">
-        <v>17.51040224031038</v>
+        <v>29.69155162487414</v>
       </c>
       <c r="L27">
-        <v>10.3449316353395</v>
+        <v>17.54140581644524</v>
       </c>
       <c r="M27">
-        <v>63.00893204192801</v>
+        <v>106.8412325928345</v>
       </c>
       <c r="N27">
-        <v>0.138539204431827</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O27">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P27">
-        <v>169.9711650781106</v>
+        <v>288.211975567231</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1762,49 +1762,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.566128740021466</v>
+        <v>2.655609602645094</v>
       </c>
       <c r="C28">
-        <v>45.43531910533437</v>
+        <v>77.04249761339307</v>
       </c>
       <c r="D28">
-        <v>0.01252006392836466</v>
+        <v>0.02122967361766182</v>
       </c>
       <c r="E28">
-        <v>4.528523780167722</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="F28">
-        <v>1.726738371968964</v>
+        <v>2.927947674208244</v>
       </c>
       <c r="G28">
-        <v>12.97573784319691</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="H28">
-        <v>0.6558360509205194</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I28">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J28">
-        <v>2.590550559342446</v>
+        <v>4.39267268758067</v>
       </c>
       <c r="K28">
-        <v>13.04696637513323</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="L28">
-        <v>9.214338013990924</v>
+        <v>15.62431228459331</v>
       </c>
       <c r="M28">
-        <v>56.12270996084299</v>
+        <v>95.16459515099466</v>
       </c>
       <c r="N28">
-        <v>0.0959117569143418</v>
+        <v>0.1626329791156231</v>
       </c>
       <c r="O28">
-        <v>1.515799659395296</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="P28">
-        <v>167.9710996855624</v>
+        <v>284.8205603363884</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1812,49 +1812,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.415516810102046</v>
+        <v>2.400224156259992</v>
       </c>
       <c r="C29">
-        <v>41.06588195621133</v>
+        <v>69.63345201270613</v>
       </c>
       <c r="D29">
-        <v>0.005999197299008067</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E29">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F29">
-        <v>1.562287098448111</v>
+        <v>2.649095514759839</v>
       </c>
       <c r="G29">
-        <v>11.73995328670196</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="H29">
-        <v>0.7114153772697163</v>
+        <v>1.206313031022562</v>
       </c>
       <c r="I29">
-        <v>20.05046172681207</v>
+        <v>33.99860901502915</v>
       </c>
       <c r="J29">
-        <v>2.283774835209788</v>
+        <v>3.872487764051379</v>
       </c>
       <c r="K29">
-        <v>11.50193088334114</v>
+        <v>19.50327410653497</v>
       </c>
       <c r="L29">
-        <v>5.822557149945184</v>
+        <v>9.873031689037484</v>
       </c>
       <c r="M29">
-        <v>35.4640437175879</v>
+        <v>60.13468282547513</v>
       </c>
       <c r="N29">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O29">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P29">
-        <v>134.1518977761052</v>
+        <v>227.4749570986131</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1862,49 +1862,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.486116152251774</v>
+        <v>2.519936084253009</v>
       </c>
       <c r="C30">
-        <v>43.11405561986274</v>
+        <v>73.10644213802814</v>
       </c>
       <c r="D30">
-        <v>0.006520866629356595</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E30">
-        <v>2.358606135504022</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F30">
-        <v>1.480061461687684</v>
+        <v>2.509669435035637</v>
       </c>
       <c r="G30">
-        <v>11.12206100845449</v>
+        <v>18.85914692737936</v>
       </c>
       <c r="H30">
-        <v>0.5891408593014837</v>
+        <v>0.9989779788155593</v>
       </c>
       <c r="I30">
-        <v>16.60428861751624</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="J30">
-        <v>3.51087773174042</v>
+        <v>5.953227458168539</v>
       </c>
       <c r="K30">
-        <v>17.68207285050951</v>
+        <v>29.98264526825525</v>
       </c>
       <c r="L30">
-        <v>7.122739814496052</v>
+        <v>12.07768925066721</v>
       </c>
       <c r="M30">
-        <v>43.38319911083569</v>
+        <v>73.56281588359094</v>
       </c>
       <c r="N30">
-        <v>0.08525489503497051</v>
+        <v>0.144562648102776</v>
       </c>
       <c r="O30">
-        <v>1.347377475018042</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="P30">
-        <v>149.8923725988425</v>
+        <v>254.1653274502112</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1912,49 +1912,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.519062511921647</v>
+        <v>2.575801650649749</v>
       </c>
       <c r="C31">
-        <v>44.06986999623341</v>
+        <v>74.72717086317843</v>
       </c>
       <c r="D31">
-        <v>0.006520866629356595</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E31">
-        <v>2.358606135504022</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F31">
-        <v>1.562287098448111</v>
+        <v>2.649095514759839</v>
       </c>
       <c r="G31">
-        <v>11.73995328670196</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="H31">
-        <v>0.6224884551110017</v>
+        <v>1.055523902144742</v>
       </c>
       <c r="I31">
-        <v>17.54415401096056</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="J31">
-        <v>2.795067708764218</v>
+        <v>4.739462636600196</v>
       </c>
       <c r="K31">
-        <v>14.07699003632796</v>
+        <v>23.86967875725176</v>
       </c>
       <c r="L31">
-        <v>6.613972684889191</v>
+        <v>11.21499716133384</v>
       </c>
       <c r="M31">
-        <v>40.28439917434742</v>
+        <v>68.30832903476305</v>
       </c>
       <c r="N31">
-        <v>0.2131372375874263</v>
+        <v>0.3614066202569401</v>
       </c>
       <c r="O31">
-        <v>3.368443687545104</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="P31">
-        <v>146.7749528909714</v>
+        <v>248.8792679455602</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1962,49 +1962,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.787340012090614</v>
+        <v>3.030706977023216</v>
       </c>
       <c r="C32">
-        <v>51.85292991810889</v>
+        <v>87.92453333940202</v>
       </c>
       <c r="D32">
-        <v>0.007042535959705122</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E32">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F32">
-        <v>0.9867076411251227</v>
+        <v>1.673112956690425</v>
       </c>
       <c r="G32">
-        <v>7.41470733896966</v>
+        <v>12.57276461825291</v>
       </c>
       <c r="H32">
-        <v>0.6780677814601982</v>
+        <v>1.14976710769338</v>
       </c>
       <c r="I32">
-        <v>19.11059633336775</v>
+        <v>32.40492421744965</v>
       </c>
       <c r="J32">
-        <v>3.306360582318647</v>
+        <v>5.606437509149012</v>
       </c>
       <c r="K32">
-        <v>16.65204918931478</v>
+        <v>28.23608340796854</v>
       </c>
       <c r="L32">
-        <v>6.218264917417185</v>
+        <v>10.54401442518566</v>
       </c>
       <c r="M32">
-        <v>37.87422144596767</v>
+        <v>64.22150593011909</v>
       </c>
       <c r="N32">
-        <v>0.1491960663111984</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O32">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P32">
-        <v>150.9426889700374</v>
+        <v>255.9462986883242</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2012,49 +2012,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.965015023167429</v>
+        <v>3.331981995805641</v>
       </c>
       <c r="C33">
-        <v>57.00750030496501</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="D33">
-        <v>0.005216693303485276</v>
+        <v>0.008845697340692422</v>
       </c>
       <c r="E33">
-        <v>1.886884908403218</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="F33">
-        <v>2.713446013094087</v>
+        <v>4.601060630898668</v>
       </c>
       <c r="G33">
-        <v>20.39044518216657</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="H33">
-        <v>0.6891836467300377</v>
+        <v>1.168615748803107</v>
       </c>
       <c r="I33">
-        <v>19.42388479784919</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="J33">
-        <v>3.357489869674092</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K33">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L33">
-        <v>5.935616512080042</v>
+        <v>10.06474104222267</v>
       </c>
       <c r="M33">
-        <v>36.1526659256964</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="N33">
-        <v>0.1065686187937131</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O33">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P33">
-        <v>168.2276944443093</v>
+        <v>285.2556557968722</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2062,49 +2062,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.39567101028077</v>
+        <v>4.062224756563044</v>
       </c>
       <c r="C34">
-        <v>69.50135965323879</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="D34">
-        <v>0.007042535959705122</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E34">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F34">
-        <v>1.603399916828324</v>
+        <v>2.71880855462194</v>
       </c>
       <c r="G34">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H34">
-        <v>0.7002995119998769</v>
+        <v>1.187464389912835</v>
       </c>
       <c r="I34">
-        <v>19.73717326233063</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="J34">
-        <v>2.011085302647425</v>
+        <v>3.410101165358678</v>
       </c>
       <c r="K34">
-        <v>10.12856600174817</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="L34">
-        <v>2.261187242697158</v>
+        <v>3.83418706370388</v>
       </c>
       <c r="M34">
-        <v>13.77244416217006</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="N34">
-        <v>0.2344509613461689</v>
+        <v>0.397547282282634</v>
       </c>
       <c r="O34">
-        <v>3.705288056299614</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="P34">
-        <v>140.6541616697167</v>
+        <v>238.5005350051718</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2112,49 +2112,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.307421832593611</v>
+        <v>3.912584846571772</v>
       </c>
       <c r="C35">
-        <v>66.94114257367448</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="D35">
-        <v>0.006260031964182331</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E35">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F35">
-        <v>1.356723006547043</v>
+        <v>2.300530315449334</v>
       </c>
       <c r="G35">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H35">
-        <v>0.8225740299681094</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I35">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J35">
-        <v>1.431620045952405</v>
+        <v>2.427529643136686</v>
       </c>
       <c r="K35">
-        <v>7.2101656283631</v>
+        <v>12.225933022007</v>
       </c>
       <c r="L35">
-        <v>1.413242026685725</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M35">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N35">
-        <v>0.04262744751748525</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O35">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P35">
-        <v>126.456073814925</v>
+        <v>214.4255164687859</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2162,49 +2162,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.660261196221103</v>
+        <v>2.815225506635787</v>
       </c>
       <c r="C36">
-        <v>48.16621732353632</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="D36">
-        <v>0.008607543950750708</v>
+        <v>0.0145954006121425</v>
       </c>
       <c r="E36">
-        <v>3.113360098865309</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="F36">
-        <v>1.19227173302619</v>
+        <v>2.021678156000931</v>
       </c>
       <c r="G36">
-        <v>8.95943803458834</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="H36">
-        <v>0.7781105688887519</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I36">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J36">
-        <v>0.9032840766128264</v>
+        <v>1.531655608169575</v>
       </c>
       <c r="K36">
-        <v>4.549271170276717</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="L36">
-        <v>1.922009156292585</v>
+        <v>3.259059004148297</v>
       </c>
       <c r="M36">
-        <v>11.70657753784455</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="N36">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O36">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P36">
-        <v>105.2477590463174</v>
+        <v>178.4635914263643</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2212,49 +2212,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.197835505140385</v>
+        <v>2.031112378281522</v>
       </c>
       <c r="C37">
-        <v>34.7506798266194</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="D37">
-        <v>0.01356340258906172</v>
+        <v>0.0229988130858003</v>
       </c>
       <c r="E37">
-        <v>4.905900761848365</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="F37">
-        <v>0.8633691859844819</v>
+        <v>1.463973837104122</v>
       </c>
       <c r="G37">
-        <v>6.487868921598456</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="H37">
-        <v>0.6669519161903589</v>
+        <v>1.130918466583652</v>
       </c>
       <c r="I37">
-        <v>18.79730786888631</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="J37">
-        <v>0.7328531187613497</v>
+        <v>1.242663983986636</v>
       </c>
       <c r="K37">
-        <v>3.690918119281111</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="L37">
-        <v>1.978538837360014</v>
+        <v>3.354913680740894</v>
       </c>
       <c r="M37">
-        <v>12.0508886418988</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="N37">
-        <v>0.05328430939685657</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O37">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P37">
-        <v>87.03207133744121</v>
+        <v>147.5761209634873</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2262,49 +2262,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.8977883010040411</v>
+        <v>1.522336684311201</v>
       </c>
       <c r="C38">
-        <v>26.04594175610077</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="D38">
-        <v>0.007825039955227913</v>
+        <v>0.01326854601103864</v>
       </c>
       <c r="E38">
-        <v>2.830327362604826</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="F38">
-        <v>0.4522410021823479</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G38">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H38">
-        <v>0.6558360509205194</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I38">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J38">
-        <v>0.460163586198987</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K38">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L38">
-        <v>1.017534259213722</v>
+        <v>1.725384178666745</v>
       </c>
       <c r="M38">
-        <v>6.197599872976525</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="N38">
-        <v>0.05328430939685657</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O38">
-        <v>0.842110921886276</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P38">
-        <v>63.66063263489421</v>
+        <v>107.946290120038</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2312,49 +2312,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.5659713929003193</v>
+        <v>0.9596906227440201</v>
       </c>
       <c r="C39">
-        <v>16.41952553693903</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="D39">
-        <v>0.01043338660697055</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E39">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F39">
-        <v>0.4522410021823479</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G39">
-        <v>3.398407530361095</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H39">
-        <v>0.3668235539046974</v>
+        <v>0.6220051566210086</v>
       </c>
       <c r="I39">
-        <v>10.33851932788747</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="J39">
-        <v>0.4090342988435441</v>
+        <v>0.6935798980390531</v>
       </c>
       <c r="K39">
-        <v>2.060047322389457</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="L39">
-        <v>0.7348858538765769</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M39">
-        <v>4.476044352705269</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="N39">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O39">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P39">
-        <v>43.36386146791646</v>
+        <v>73.5300259673366</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2362,49 +2362,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.3329935638062168</v>
+        <v>0.5646412603670639</v>
       </c>
       <c r="C40">
-        <v>9.660552446889284</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="D40">
-        <v>0.005999197299008067</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E40">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F40">
-        <v>0.1644512735208537</v>
+        <v>0.2788521594484041</v>
       </c>
       <c r="G40">
-        <v>1.235784556494944</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="H40">
-        <v>0.1667379790475897</v>
+        <v>0.282729616645913</v>
       </c>
       <c r="I40">
-        <v>4.699326967221578</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="J40">
-        <v>0.3749481072732488</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K40">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L40">
-        <v>1.243652983483437</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M40">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="N40">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O40">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P40">
-        <v>29.87574381359698</v>
+        <v>50.65886994479489</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2412,49 +2412,49 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.2012081251267248</v>
+        <v>0.3411789947800986</v>
       </c>
       <c r="C41">
-        <v>5.837294941406597</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="D41">
-        <v>0.004434189307962484</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E41">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F41">
-        <v>0.04111281838021343</v>
+        <v>0.06971303986210103</v>
       </c>
       <c r="G41">
-        <v>0.3089461391237359</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="H41">
-        <v>0.06669519161903591</v>
+        <v>0.1130918466583652</v>
       </c>
       <c r="I41">
-        <v>1.879730786888631</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="J41">
-        <v>0.5453790651247257</v>
+        <v>0.924773197385404</v>
       </c>
       <c r="K41">
-        <v>2.746729763185943</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="L41">
-        <v>1.187123302416008</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M41">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="N41">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O41">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P41">
-        <v>21.83211872611822</v>
+        <v>37.01967957907002</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,43 +2462,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1506119299194198</v>
+        <v>0.255385446385103</v>
       </c>
       <c r="C42">
-        <v>4.369437149123068</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="D42">
-        <v>0.006781701294530859</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E42">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F42">
-        <v>0.08222563676042687</v>
+        <v>0.1394260797242021</v>
       </c>
       <c r="G42">
-        <v>0.6178922782474718</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H42">
-        <v>0.02223173053967863</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I42">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J42">
-        <v>0.460163586198987</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K42">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L42">
-        <v>0.8479452160114348</v>
+        <v>1.437820148888954</v>
       </c>
       <c r="M42">
-        <v>5.164666560813774</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="P42">
-        <v>17.11903633648399</v>
+        <v>29.02793117925545</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2506,43 +2506,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.08824917768716001</v>
+        <v>0.1496399099912714</v>
       </c>
       <c r="C43">
-        <v>2.560217079564298</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="D43">
-        <v>0.003130015982091166</v>
+        <v>0.005307418404415455</v>
       </c>
       <c r="E43">
-        <v>1.132130945041931</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="F43">
-        <v>0.1233384551406403</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G43">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H43">
-        <v>0.01111586526983932</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I43">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J43">
-        <v>0.3579050114881012</v>
+        <v>0.6068824107841715</v>
       </c>
       <c r="K43">
-        <v>1.802541407090775</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="L43">
-        <v>1.243652983483437</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M43">
-        <v>7.57484428919353</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="P43">
-        <v>16.13725211179445</v>
+        <v>27.36316662434712</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1200188816545376</v>
+        <v>0.2035102775881291</v>
       </c>
       <c r="C44">
-        <v>3.481895228207444</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="D44">
-        <v>0.002347511986568374</v>
+        <v>0.00398056380331159</v>
       </c>
       <c r="E44">
-        <v>0.8490982087814478</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="F44">
-        <v>0.1233384551406403</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G44">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H44">
-        <v>0.08892692215871453</v>
+        <v>0.1507891288778203</v>
       </c>
       <c r="I44">
-        <v>2.506307715851509</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="J44">
-        <v>0.3408619157029535</v>
+        <v>0.5779832483658773</v>
       </c>
       <c r="K44">
-        <v>1.716706101991215</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="L44">
-        <v>0.6783561728091481</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M44">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="P44">
-        <v>14.9664287803064</v>
+        <v>25.37785749704129</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2412144190115705</v>
+        <v>0.4090157539761416</v>
       </c>
       <c r="C45">
-        <v>6.997926684142413</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="D45">
-        <v>0.003651685312439694</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E45">
-        <v>1.320819435882252</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F45">
-        <v>0.1233384551406403</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G45">
-        <v>0.9268384173712075</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H45">
-        <v>0.05557932634919657</v>
+        <v>0.09424320554863769</v>
       </c>
       <c r="I45">
-        <v>1.566442322407192</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="J45">
-        <v>0.460163586198987</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K45">
-        <v>2.31755323768814</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L45">
-        <v>1.413242026685725</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M45">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N45">
-        <v>0.03197058563811394</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O45">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P45">
-        <v>24.57178433631593</v>
+        <v>41.66519952679657</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.7154066671172435</v>
+        <v>1.21308087032924</v>
       </c>
       <c r="C46">
-        <v>20.75482645833458</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="D46">
-        <v>0.004695023973136749</v>
+        <v>0.007961127606623181</v>
       </c>
       <c r="E46">
-        <v>1.698196417562896</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="F46">
-        <v>0.7811435492240553</v>
+        <v>1.32454775737992</v>
       </c>
       <c r="G46">
-        <v>5.869976643350982</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="H46">
-        <v>0.2445490359364649</v>
+        <v>0.4146701044140058</v>
       </c>
       <c r="I46">
-        <v>6.892346218591646</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="J46">
-        <v>1.056671938679156</v>
+        <v>1.79174806993422</v>
       </c>
       <c r="K46">
-        <v>5.321788916172764</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="L46">
-        <v>2.713424691236592</v>
+        <v>4.601024476444655</v>
       </c>
       <c r="M46">
-        <v>16.52693299460406</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="N46">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O46">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P46">
-        <v>62.75903760104021</v>
+        <v>106.4174985408943</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.214308684975322</v>
+        <v>2.059045161479893</v>
       </c>
       <c r="C47">
-        <v>35.22858701480472</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="D47">
-        <v>0.00339085064726543</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E47">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F47">
-        <v>1.06893327788555</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G47">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H47">
-        <v>0.6558360509205194</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I47">
-        <v>18.48401940440487</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J47">
-        <v>1.448663141737552</v>
+        <v>2.45642880555498</v>
       </c>
       <c r="K47">
-        <v>7.296000933462662</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="L47">
-        <v>3.730958950450314</v>
+        <v>6.326408655111401</v>
       </c>
       <c r="M47">
-        <v>22.7245328675806</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="N47">
-        <v>0.1278823425524558</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O47">
-        <v>2.021066212527062</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P47">
-        <v>103.2632545396281</v>
+        <v>175.0985620454564</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.907358893745152</v>
+        <v>3.234217254611344</v>
       </c>
       <c r="C48">
-        <v>55.33482514631635</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="D48">
-        <v>0.00339085064726543</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E48">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F48">
-        <v>1.06893327788555</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G48">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H48">
-        <v>0.8225740299681094</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I48">
-        <v>23.18334637162646</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J48">
-        <v>2.164473164713754</v>
+        <v>3.670193627123323</v>
       </c>
       <c r="K48">
-        <v>10.90108374764421</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="L48">
-        <v>4.239726080057173</v>
+        <v>7.189100744444771</v>
       </c>
       <c r="M48">
-        <v>25.82333280406887</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="N48">
-        <v>0.2237940994667975</v>
+        <v>0.3794769512697871</v>
       </c>
       <c r="O48">
-        <v>3.536865871922359</v>
+        <v>5.997294304564</v>
       </c>
       <c r="P48">
-        <v>138.4687791457413</v>
+        <v>234.7948863775612</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.854409387132856</v>
+        <v>3.144433308616582</v>
       </c>
       <c r="C49">
-        <v>53.79869489857775</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="D49">
-        <v>0.005738362633833804</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E49">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F49">
-        <v>1.151158914645976</v>
+        <v>1.951965116138829</v>
       </c>
       <c r="G49">
-        <v>8.650491895464608</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="H49">
-        <v>0.7781105688887519</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I49">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J49">
-        <v>1.806568153225653</v>
+        <v>3.06331121633915</v>
       </c>
       <c r="K49">
-        <v>9.098542340553434</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="L49">
-        <v>5.087671296068607</v>
+        <v>8.626920893333725</v>
       </c>
       <c r="M49">
-        <v>30.98799936488263</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="N49">
-        <v>0.04262744751748525</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O49">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P49">
-        <v>137.9414672800449</v>
+        <v>233.900748866163</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>3.028711778223331</v>
+        <v>1.781767548292004</v>
       </c>
       <c r="C2">
-        <v>87.86665017064665</v>
+        <v>51.69126589622949</v>
       </c>
       <c r="D2">
-        <v>0.01061483680883091</v>
+        <v>0.006244625814967771</v>
       </c>
       <c r="E2">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="F2">
-        <v>2.997660714070344</v>
+        <v>1.763500449109598</v>
       </c>
       <c r="G2">
-        <v>22.52620327436979</v>
+        <v>13.25198992822141</v>
       </c>
       <c r="H2">
-        <v>1.017826619925287</v>
+        <v>0.5987794725830425</v>
       </c>
       <c r="I2">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="J2">
-        <v>6.097723270260007</v>
+        <v>3.587243104323255</v>
       </c>
       <c r="K2">
-        <v>30.71037937670806</v>
+        <v>18.06667698213692</v>
       </c>
       <c r="L2">
-        <v>20.32119143763056</v>
+        <v>11.95479863965106</v>
       </c>
       <c r="M2">
-        <v>123.7723568835022</v>
+        <v>72.81431348347299</v>
       </c>
       <c r="N2">
-        <v>0.3071956272183992</v>
+        <v>0.180720794725483</v>
       </c>
       <c r="O2">
-        <v>4.854952532266095</v>
+        <v>2.856130759185085</v>
       </c>
       <c r="P2">
-        <v>336.0371934742896</v>
+        <v>197.6880635049521</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.252579445068605</v>
+        <v>1.325174942043262</v>
       </c>
       <c r="C3">
-        <v>65.35009752480902</v>
+        <v>38.44495335760412</v>
       </c>
       <c r="D3">
-        <v>0.01105712167586553</v>
+        <v>0.006504818557258096</v>
       </c>
       <c r="E3">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="F3">
-        <v>2.927947674208244</v>
+        <v>1.722488810758212</v>
       </c>
       <c r="G3">
-        <v>22.00233808194258</v>
+        <v>12.94380411593719</v>
       </c>
       <c r="H3">
-        <v>0.7162483621696465</v>
+        <v>0.4213633325584373</v>
       </c>
       <c r="I3">
-        <v>20.18667410267356</v>
+        <v>11.8756631392603</v>
       </c>
       <c r="J3">
-        <v>6.357815732024653</v>
+        <v>3.740253473701971</v>
       </c>
       <c r="K3">
-        <v>32.02030077192308</v>
+        <v>18.83729353587734</v>
       </c>
       <c r="L3">
-        <v>14.28234681229695</v>
+        <v>8.402193383528342</v>
       </c>
       <c r="M3">
-        <v>86.99094894170673</v>
+        <v>51.17609768413904</v>
       </c>
       <c r="N3">
-        <v>0.2349143031670111</v>
+        <v>0.1381982547900752</v>
       </c>
       <c r="O3">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="P3">
-        <v>261.0452552547061</v>
+        <v>153.5708903675485</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.436137734657895</v>
+        <v>1.433160854060959</v>
       </c>
       <c r="C4">
-        <v>70.67534905030274</v>
+        <v>41.57775735131501</v>
       </c>
       <c r="D4">
-        <v>0.01194169140993477</v>
+        <v>0.007025204041838744</v>
       </c>
       <c r="E4">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="F4">
-        <v>2.439956395173535</v>
+        <v>1.43540734229851</v>
       </c>
       <c r="G4">
-        <v>18.33528173495215</v>
+        <v>10.78650342994766</v>
       </c>
       <c r="H4">
-        <v>1.017826619925287</v>
+        <v>0.5987794725830425</v>
       </c>
       <c r="I4">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="J4">
-        <v>5.230748397711191</v>
+        <v>3.077208539727531</v>
       </c>
       <c r="K4">
-        <v>26.34397472599127</v>
+        <v>15.49795513633545</v>
       </c>
       <c r="L4">
-        <v>14.09063745911175</v>
+        <v>8.289412264286353</v>
       </c>
       <c r="M4">
-        <v>85.82328519752278</v>
+        <v>50.4891701984459</v>
       </c>
       <c r="N4">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O4">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P4">
-        <v>261.2327256784711</v>
+        <v>153.6811777576298</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.270536234267557</v>
+        <v>1.335738781262384</v>
       </c>
       <c r="C5">
-        <v>65.87104604360728</v>
+        <v>38.75142331351062</v>
       </c>
       <c r="D5">
-        <v>0.0145954006121425</v>
+        <v>0.008586360495580689</v>
       </c>
       <c r="E5">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="F5">
-        <v>3.206799833656648</v>
+        <v>1.886535364163756</v>
       </c>
       <c r="G5">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="H5">
-        <v>0.8293402088280116</v>
+        <v>0.4878943850676641</v>
       </c>
       <c r="I5">
-        <v>23.37404369783255</v>
+        <v>13.7507678454593</v>
       </c>
       <c r="J5">
-        <v>4.39267268758067</v>
+        <v>2.584175127284999</v>
       </c>
       <c r="K5">
-        <v>22.12311689696504</v>
+        <v>13.01485735206071</v>
       </c>
       <c r="L5">
-        <v>12.7486719868154</v>
+        <v>7.499944429592413</v>
       </c>
       <c r="M5">
-        <v>77.64963898823488</v>
+        <v>45.68067779859392</v>
       </c>
       <c r="N5">
-        <v>0.198773641141317</v>
+        <v>0.1169369848223713</v>
       </c>
       <c r="O5">
-        <v>3.141439873819238</v>
+        <v>1.848084608884466</v>
       </c>
       <c r="P5">
-        <v>245.1976501648272</v>
+        <v>144.2478677312191</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.358324981462435</v>
+        <v>1.387384217444762</v>
       </c>
       <c r="C6">
-        <v>68.41790546884344</v>
+        <v>40.24972087572019</v>
       </c>
       <c r="D6">
-        <v>0.01769139468138484</v>
+        <v>0.01040770969161295</v>
       </c>
       <c r="E6">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="F6">
-        <v>2.71880855462194</v>
+        <v>1.599453895704054</v>
       </c>
       <c r="G6">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="H6">
-        <v>1.07437254325447</v>
+        <v>0.632044998837656</v>
       </c>
       <c r="I6">
-        <v>30.28001115401034</v>
+        <v>17.81349470889045</v>
       </c>
       <c r="J6">
-        <v>5.086252585619724</v>
+        <v>2.992202778961578</v>
       </c>
       <c r="K6">
-        <v>25.61624061753847</v>
+        <v>15.06983482870187</v>
       </c>
       <c r="L6">
-        <v>13.22794536977838</v>
+        <v>7.781897227697391</v>
       </c>
       <c r="M6">
-        <v>80.56879834869484</v>
+        <v>47.39799651282676</v>
       </c>
       <c r="N6">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O6">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P6">
-        <v>259.8399638059295</v>
+        <v>152.8618267963282</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.318421005464764</v>
+        <v>1.363909019180045</v>
       </c>
       <c r="C7">
-        <v>67.26024209373611</v>
+        <v>39.5686765292613</v>
       </c>
       <c r="D7">
-        <v>0.01415311574510788</v>
+        <v>0.008326167753290363</v>
       </c>
       <c r="E7">
-        <v>5.119200794972208</v>
+        <v>3.011585953887858</v>
       </c>
       <c r="F7">
-        <v>3.34622591338085</v>
+        <v>1.968558640866528</v>
       </c>
       <c r="G7">
-        <v>25.14552923650581</v>
+        <v>14.79291898964251</v>
       </c>
       <c r="H7">
-        <v>0.8104915677182839</v>
+        <v>0.4768058763161264</v>
       </c>
       <c r="I7">
-        <v>22.84281543197271</v>
+        <v>13.43825039442613</v>
       </c>
       <c r="J7">
-        <v>5.722034158822189</v>
+        <v>3.366228126331776</v>
       </c>
       <c r="K7">
-        <v>28.81827069473078</v>
+        <v>16.95356418228961</v>
       </c>
       <c r="L7">
-        <v>13.51550939955617</v>
+        <v>7.951068906560379</v>
       </c>
       <c r="M7">
-        <v>82.32029396497082</v>
+        <v>48.42838774136647</v>
       </c>
       <c r="N7">
-        <v>0.198773641141317</v>
+        <v>0.1169369848223713</v>
       </c>
       <c r="O7">
-        <v>3.141439873819238</v>
+        <v>1.848084608884466</v>
       </c>
       <c r="P7">
-        <v>260.5734008925364</v>
+        <v>153.2933021215889</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.442123331057548</v>
+        <v>1.436682133800667</v>
       </c>
       <c r="C8">
-        <v>70.84899855656887</v>
+        <v>41.67991400328383</v>
       </c>
       <c r="D8">
-        <v>0.01547997034621174</v>
+        <v>0.009106745980161337</v>
       </c>
       <c r="E8">
-        <v>5.599125869500852</v>
+        <v>3.293922137064845</v>
       </c>
       <c r="F8">
-        <v>2.300530315449334</v>
+        <v>1.353384065595738</v>
       </c>
       <c r="G8">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="H8">
-        <v>0.8670374910474667</v>
+        <v>0.5100714025707399</v>
       </c>
       <c r="I8">
-        <v>24.43650022955221</v>
+        <v>14.37580274752563</v>
       </c>
       <c r="J8">
-        <v>5.144050910456309</v>
+        <v>3.02620508326796</v>
       </c>
       <c r="K8">
-        <v>25.9073342609196</v>
+        <v>15.24108295175531</v>
       </c>
       <c r="L8">
-        <v>10.35230507200047</v>
+        <v>6.090180439067523</v>
       </c>
       <c r="M8">
-        <v>63.05384218593508</v>
+        <v>37.09408422742965</v>
       </c>
       <c r="N8">
-        <v>0.2529846341798581</v>
+        <v>0.1488288897739271</v>
       </c>
       <c r="O8">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="P8">
-        <v>232.5060603801542</v>
+        <v>136.78150431653</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>3.331981995805641</v>
+        <v>1.960179055103851</v>
       </c>
       <c r="C9">
-        <v>96.66489182146236</v>
+        <v>56.86720292931702</v>
       </c>
       <c r="D9">
-        <v>0.008845697340692422</v>
+        <v>0.005203854845806476</v>
       </c>
       <c r="E9">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="F9">
-        <v>4.601060630898668</v>
+        <v>2.706768131191476</v>
       </c>
       <c r="G9">
-        <v>34.57510270019549</v>
+        <v>20.34026361075845</v>
       </c>
       <c r="H9">
-        <v>1.168615748803107</v>
+        <v>0.6874875425953447</v>
       </c>
       <c r="I9">
-        <v>32.93615248330951</v>
+        <v>19.37608196405628</v>
       </c>
       <c r="J9">
-        <v>5.693134996403896</v>
+        <v>3.349226974178584</v>
       </c>
       <c r="K9">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="L9">
-        <v>10.06474104222267</v>
+        <v>5.921008760204536</v>
       </c>
       <c r="M9">
-        <v>61.30234656965913</v>
+        <v>36.06369299888993</v>
       </c>
       <c r="N9">
-        <v>0.1807033101284701</v>
+        <v>0.1063063498385194</v>
       </c>
       <c r="O9">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="P9">
-        <v>285.2556557968722</v>
+        <v>167.8136804300903</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>4.062224756563044</v>
+        <v>2.389775183348169</v>
       </c>
       <c r="C10">
-        <v>117.8501315859267</v>
+        <v>69.33031446951465</v>
       </c>
       <c r="D10">
-        <v>0.01194169140993477</v>
+        <v>0.007025204041838744</v>
       </c>
       <c r="E10">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="F10">
-        <v>2.71880855462194</v>
+        <v>1.599453895704054</v>
       </c>
       <c r="G10">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="H10">
-        <v>1.187464389912835</v>
+        <v>0.6985760513468828</v>
       </c>
       <c r="I10">
-        <v>33.46738074916932</v>
+        <v>19.68859941508945</v>
       </c>
       <c r="J10">
-        <v>3.410101165358678</v>
+        <v>2.006135954076513</v>
       </c>
       <c r="K10">
-        <v>17.17452495948602</v>
+        <v>10.10363926015239</v>
       </c>
       <c r="L10">
-        <v>3.83418706370388</v>
+        <v>2.255622384839824</v>
       </c>
       <c r="M10">
-        <v>23.35327488367967</v>
+        <v>13.73854971386283</v>
       </c>
       <c r="N10">
-        <v>0.397547282282634</v>
+        <v>0.2338739696447427</v>
       </c>
       <c r="O10">
-        <v>6.282879747638476</v>
+        <v>3.696169217768932</v>
       </c>
       <c r="P10">
-        <v>238.5005350051718</v>
+        <v>140.3080070470677</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.912584846571772</v>
+        <v>2.301743189855479</v>
       </c>
       <c r="C11">
-        <v>113.5088939292741</v>
+        <v>66.77639817029383</v>
       </c>
       <c r="D11">
-        <v>0.01061483680883091</v>
+        <v>0.006244625814967771</v>
       </c>
       <c r="E11">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="F11">
-        <v>2.300530315449334</v>
+        <v>1.353384065595738</v>
       </c>
       <c r="G11">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="H11">
-        <v>1.394799442119838</v>
+        <v>0.820549647613799</v>
       </c>
       <c r="I11">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="J11">
-        <v>2.427529643136686</v>
+        <v>1.428096780868026</v>
       </c>
       <c r="K11">
-        <v>12.225933022007</v>
+        <v>7.192421168244076</v>
       </c>
       <c r="L11">
-        <v>2.396366914814924</v>
+        <v>1.40976399052489</v>
       </c>
       <c r="M11">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="N11">
-        <v>0.07228132405138801</v>
+        <v>0.04252253993540776</v>
       </c>
       <c r="O11">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="P11">
-        <v>214.4255164687859</v>
+        <v>126.144861164027</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.815225506635787</v>
+        <v>1.656175237575768</v>
       </c>
       <c r="C12">
-        <v>81.67315111382244</v>
+        <v>48.04767864267445</v>
       </c>
       <c r="D12">
-        <v>0.0145954006121425</v>
+        <v>0.008586360495580689</v>
       </c>
       <c r="E12">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="F12">
-        <v>2.021678156000931</v>
+        <v>1.189337512190194</v>
       </c>
       <c r="G12">
-        <v>15.19209058038892</v>
+        <v>8.937388556242347</v>
       </c>
       <c r="H12">
-        <v>1.319404877680928</v>
+        <v>0.7761956126076477</v>
       </c>
       <c r="I12">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="J12">
-        <v>1.531655608169575</v>
+        <v>0.9010610641191118</v>
       </c>
       <c r="K12">
-        <v>7.713981549599653</v>
+        <v>4.538075260915906</v>
       </c>
       <c r="L12">
-        <v>3.259059004148297</v>
+        <v>1.91727902711385</v>
       </c>
       <c r="M12">
-        <v>19.85028365112771</v>
+        <v>11.67776725678341</v>
       </c>
       <c r="N12">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O12">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P12">
-        <v>178.4635914263643</v>
+        <v>104.988740771388</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>2.031112378281522</v>
+        <v>1.194887591674084</v>
       </c>
       <c r="C13">
-        <v>58.92506579296334</v>
+        <v>34.66515723475732</v>
       </c>
       <c r="D13">
-        <v>0.0229988130858003</v>
+        <v>0.01353002259909684</v>
       </c>
       <c r="E13">
-        <v>8.318701291829838</v>
+        <v>4.893827175067772</v>
       </c>
       <c r="F13">
-        <v>1.463973837104122</v>
+        <v>0.8612444053791062</v>
       </c>
       <c r="G13">
-        <v>11.00116904097129</v>
+        <v>6.471902057968596</v>
       </c>
       <c r="H13">
-        <v>1.130918466583652</v>
+        <v>0.6653105250922693</v>
       </c>
       <c r="I13">
-        <v>31.87369595158984</v>
+        <v>18.75104706198995</v>
       </c>
       <c r="J13">
-        <v>1.242663983986636</v>
+        <v>0.7310495425872036</v>
       </c>
       <c r="K13">
-        <v>6.258513332694057</v>
+        <v>3.681834645648753</v>
       </c>
       <c r="L13">
-        <v>3.354913680740894</v>
+        <v>1.973669586734845</v>
       </c>
       <c r="M13">
-        <v>20.43411552321971</v>
+        <v>12.02123099962998</v>
       </c>
       <c r="N13">
-        <v>0.09035165506423504</v>
+        <v>0.05315317491925969</v>
       </c>
       <c r="O13">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="P13">
-        <v>147.5761209634873</v>
+        <v>86.81788248263209</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.522336684311201</v>
+        <v>0.8955788137989442</v>
       </c>
       <c r="C14">
-        <v>44.16485776034481</v>
+        <v>25.98184181740652</v>
       </c>
       <c r="D14">
-        <v>0.01326854601103864</v>
+        <v>0.007805782268709712</v>
       </c>
       <c r="E14">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="F14">
-        <v>0.7668434384831115</v>
+        <v>0.4511280218652461</v>
       </c>
       <c r="G14">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="H14">
-        <v>1.112069825473925</v>
+        <v>0.6542220163407315</v>
       </c>
       <c r="I14">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="J14">
-        <v>0.7802773852939345</v>
+        <v>0.4590311081361511</v>
       </c>
       <c r="K14">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="L14">
-        <v>1.725384178666745</v>
+        <v>1.015030073177921</v>
       </c>
       <c r="M14">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="N14">
-        <v>0.09035165506423504</v>
+        <v>0.05315317491925969</v>
       </c>
       <c r="O14">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="P14">
-        <v>107.946290120038</v>
+        <v>63.50396167680998</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.9596906227440201</v>
+        <v>0.5645785182664383</v>
       </c>
       <c r="C15">
-        <v>27.84180417133139</v>
+        <v>16.37911653233622</v>
       </c>
       <c r="D15">
-        <v>0.01769139468138484</v>
+        <v>0.01040770969161295</v>
       </c>
       <c r="E15">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="F15">
-        <v>0.7668434384831115</v>
+        <v>0.4511280218652461</v>
       </c>
       <c r="G15">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="H15">
-        <v>0.6220051566210086</v>
+        <v>0.3659207888007483</v>
       </c>
       <c r="I15">
-        <v>17.53053277337441</v>
+        <v>10.31307588409447</v>
       </c>
       <c r="J15">
-        <v>0.6935798980390531</v>
+        <v>0.4080276516765789</v>
       </c>
       <c r="K15">
-        <v>3.493123720573428</v>
+        <v>2.054977476641165</v>
       </c>
       <c r="L15">
-        <v>1.246110795703761</v>
+        <v>0.7330772750729425</v>
       </c>
       <c r="M15">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="N15">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O15">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P15">
-        <v>73.5300259673366</v>
+        <v>43.25714154633831</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.5646412603670639</v>
+        <v>0.3321740554457423</v>
       </c>
       <c r="C16">
-        <v>16.38093675776878</v>
+        <v>9.636777502393244</v>
       </c>
       <c r="D16">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677447</v>
       </c>
       <c r="E16">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="F16">
-        <v>0.2788521594484041</v>
+        <v>0.164046553405544</v>
       </c>
       <c r="G16">
-        <v>2.095460769708817</v>
+        <v>1.232743249136876</v>
       </c>
       <c r="H16">
-        <v>0.282729616645913</v>
+        <v>0.1663276312730673</v>
       </c>
       <c r="I16">
-        <v>7.968423987897459</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="J16">
-        <v>0.6357815732024655</v>
+        <v>0.3740253473701972</v>
       </c>
       <c r="K16">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="L16">
-        <v>2.108802885037132</v>
+        <v>1.240592311661903</v>
       </c>
       <c r="M16">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="N16">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O16">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P16">
-        <v>50.65886994479489</v>
+        <v>29.80221860322717</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,49 +1230,49 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.3411789947800986</v>
+        <v>0.2007129451633284</v>
       </c>
       <c r="C17">
-        <v>9.898021857167707</v>
+        <v>5.822929162223479</v>
       </c>
       <c r="D17">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E17">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F17">
-        <v>0.06971303986210103</v>
+        <v>0.041011638351386</v>
       </c>
       <c r="G17">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="H17">
-        <v>0.1130918466583652</v>
+        <v>0.06653105250922695</v>
       </c>
       <c r="I17">
-        <v>3.187369595158982</v>
+        <v>1.875104706198995</v>
       </c>
       <c r="J17">
-        <v>0.924773197385404</v>
+        <v>0.544036868902105</v>
       </c>
       <c r="K17">
-        <v>4.657498294097903</v>
+        <v>2.739969968854886</v>
       </c>
       <c r="L17">
-        <v>2.012948208444536</v>
+        <v>1.184201752040908</v>
       </c>
       <c r="M17">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="N17">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O17">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P17">
-        <v>37.01967957907002</v>
+        <v>21.778389147629</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1280,43 +1280,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.255385446385103</v>
+        <v>0.1502412688941873</v>
       </c>
       <c r="C18">
-        <v>7.409045600686938</v>
+        <v>4.358683817336872</v>
       </c>
       <c r="D18">
-        <v>0.01149940654290015</v>
+        <v>0.00676501129954842</v>
       </c>
       <c r="E18">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="F18">
-        <v>0.1394260797242021</v>
+        <v>0.082023276702772</v>
       </c>
       <c r="G18">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="H18">
-        <v>0.03769728221945507</v>
+        <v>0.02217701750307565</v>
       </c>
       <c r="I18">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="J18">
-        <v>0.7802773852939345</v>
+        <v>0.4590311081361511</v>
       </c>
       <c r="K18">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="L18">
-        <v>1.437820148888954</v>
+        <v>0.8458583943149337</v>
       </c>
       <c r="M18">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="P18">
-        <v>29.02793117925545</v>
+        <v>17.07690581227607</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1496399099912714</v>
+        <v>0.08803199349268792</v>
       </c>
       <c r="C19">
-        <v>4.341237656652502</v>
+        <v>2.553916299220825</v>
       </c>
       <c r="D19">
-        <v>0.005307418404415455</v>
+        <v>0.003122312907483885</v>
       </c>
       <c r="E19">
-        <v>1.919700298114578</v>
+        <v>1.129344732707947</v>
       </c>
       <c r="F19">
-        <v>0.2091391195863031</v>
+        <v>0.123034915054158</v>
       </c>
       <c r="G19">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="H19">
-        <v>0.01884864110972754</v>
+        <v>0.01108850875153783</v>
       </c>
       <c r="I19">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="J19">
-        <v>0.6068824107841715</v>
+        <v>0.3570241952170064</v>
       </c>
       <c r="K19">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="L19">
-        <v>2.108802885037132</v>
+        <v>1.240592311661903</v>
       </c>
       <c r="M19">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="P19">
-        <v>27.36316662434712</v>
+        <v>16.09753779158495</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,43 +1368,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.2035102775881291</v>
+        <v>0.1197235111500555</v>
       </c>
       <c r="C20">
-        <v>5.904083213047406</v>
+        <v>3.473326166940321</v>
       </c>
       <c r="D20">
-        <v>0.00398056380331159</v>
+        <v>0.002341734680612914</v>
       </c>
       <c r="E20">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="F20">
-        <v>0.2091391195863031</v>
+        <v>0.123034915054158</v>
       </c>
       <c r="G20">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="H20">
-        <v>0.1507891288778203</v>
+        <v>0.0887080700123026</v>
       </c>
       <c r="I20">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="J20">
-        <v>0.5779832483658773</v>
+        <v>0.3400230430638157</v>
       </c>
       <c r="K20">
-        <v>2.91093643381119</v>
+        <v>1.712481230534304</v>
       </c>
       <c r="L20">
-        <v>1.150256119111164</v>
+        <v>0.6766867154519475</v>
       </c>
       <c r="M20">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="P20">
-        <v>25.37785749704129</v>
+        <v>14.92959589569531</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1412,49 +1412,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.4090157539761416</v>
+        <v>0.2406207822133468</v>
       </c>
       <c r="C21">
-        <v>11.86604959485017</v>
+        <v>6.980704551203585</v>
       </c>
       <c r="D21">
-        <v>0.006191988138484697</v>
+        <v>0.003642698392064533</v>
       </c>
       <c r="E21">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="F21">
-        <v>0.2091391195863031</v>
+        <v>0.123034915054158</v>
       </c>
       <c r="G21">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="H21">
-        <v>0.09424320554863769</v>
+        <v>0.05544254375768912</v>
       </c>
       <c r="I21">
-        <v>2.656141329299152</v>
+        <v>1.56258725516583</v>
       </c>
       <c r="J21">
-        <v>0.7802773852939345</v>
+        <v>0.4590311081361511</v>
       </c>
       <c r="K21">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="L21">
-        <v>2.396366914814924</v>
+        <v>1.40976399052489</v>
       </c>
       <c r="M21">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="N21">
-        <v>0.05421099303854103</v>
+        <v>0.03189190495155583</v>
       </c>
       <c r="O21">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="P21">
-        <v>41.66519952679657</v>
+        <v>24.51131234861375</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1462,49 +1462,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1.21308087032924</v>
+        <v>0.7136460272473897</v>
       </c>
       <c r="C22">
-        <v>35.19296660326297</v>
+        <v>20.70374813235015</v>
       </c>
       <c r="D22">
-        <v>0.007961127606623181</v>
+        <v>0.004683469361225829</v>
       </c>
       <c r="E22">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="F22">
-        <v>1.32454775737992</v>
+        <v>0.779221128676334</v>
       </c>
       <c r="G22">
-        <v>9.953438656116884</v>
+        <v>5.855530433400159</v>
       </c>
       <c r="H22">
-        <v>0.4146701044140058</v>
+        <v>0.243947192533832</v>
       </c>
       <c r="I22">
-        <v>11.68702184891627</v>
+        <v>6.875383922729651</v>
       </c>
       <c r="J22">
-        <v>1.79174806993422</v>
+        <v>1.054071433497828</v>
       </c>
       <c r="K22">
-        <v>9.023902944814688</v>
+        <v>5.308691814656343</v>
       </c>
       <c r="L22">
-        <v>4.601024476444655</v>
+        <v>2.70674686180779</v>
       </c>
       <c r="M22">
-        <v>28.02392986041559</v>
+        <v>16.48625965663539</v>
       </c>
       <c r="N22">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O22">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P22">
-        <v>106.4174985408943</v>
+        <v>62.60458549865864</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1512,49 +1512,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>2.059045161479893</v>
+        <v>1.211320230459385</v>
       </c>
       <c r="C23">
-        <v>59.73543015553847</v>
+        <v>35.14188827727855</v>
       </c>
       <c r="D23">
-        <v>0.005749703271450076</v>
+        <v>0.00338250564977421</v>
       </c>
       <c r="E23">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="F23">
-        <v>1.812539036414627</v>
+        <v>1.066302597136036</v>
       </c>
       <c r="G23">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="H23">
-        <v>1.112069825473925</v>
+        <v>0.6542220163407315</v>
       </c>
       <c r="I23">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="J23">
-        <v>2.45642880555498</v>
+        <v>1.445097933021217</v>
       </c>
       <c r="K23">
-        <v>12.37147984369756</v>
+        <v>7.278045229770792</v>
       </c>
       <c r="L23">
-        <v>6.326408655111401</v>
+        <v>3.721776934985709</v>
       </c>
       <c r="M23">
-        <v>38.53290355807145</v>
+        <v>22.66860702787367</v>
       </c>
       <c r="N23">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O23">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P23">
-        <v>175.0985620454564</v>
+        <v>103.0091201970368</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1562,49 +1562,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>3.234217254611344</v>
+        <v>1.902664819355293</v>
       </c>
       <c r="C24">
-        <v>93.82861655244939</v>
+        <v>55.19864428049274</v>
       </c>
       <c r="D24">
-        <v>0.005749703271450076</v>
+        <v>0.00338250564977421</v>
       </c>
       <c r="E24">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="F24">
-        <v>1.812539036414627</v>
+        <v>1.066302597136036</v>
       </c>
       <c r="G24">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="H24">
-        <v>1.394799442119838</v>
+        <v>0.820549647613799</v>
       </c>
       <c r="I24">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="J24">
-        <v>3.670193627123323</v>
+        <v>2.159146323455229</v>
       </c>
       <c r="K24">
-        <v>18.48444635470106</v>
+        <v>10.87425581389283</v>
       </c>
       <c r="L24">
-        <v>7.189100744444771</v>
+        <v>4.22929197157467</v>
       </c>
       <c r="M24">
-        <v>43.78739040689937</v>
+        <v>25.75978071349281</v>
       </c>
       <c r="N24">
-        <v>0.3794769512697871</v>
+        <v>0.2232433346608907</v>
       </c>
       <c r="O24">
-        <v>5.997294304564</v>
+        <v>3.528161526052164</v>
       </c>
       <c r="P24">
-        <v>234.7948863775612</v>
+        <v>138.1280028229872</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1612,49 +1612,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>3.144433308616582</v>
+        <v>1.849845623259682</v>
       </c>
       <c r="C25">
-        <v>91.22387395845793</v>
+        <v>53.6662945009603</v>
       </c>
       <c r="D25">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E25">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F25">
-        <v>1.951965116138829</v>
+        <v>1.148325873838808</v>
       </c>
       <c r="G25">
-        <v>14.66822538796172</v>
+        <v>8.62920274395813</v>
       </c>
       <c r="H25">
-        <v>1.319404877680928</v>
+        <v>0.7761956126076477</v>
       </c>
       <c r="I25">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="J25">
-        <v>3.06331121633915</v>
+        <v>1.802122128238224</v>
       </c>
       <c r="K25">
-        <v>15.42796309919931</v>
+        <v>9.076150521831812</v>
       </c>
       <c r="L25">
-        <v>8.626920893333725</v>
+        <v>5.075150365889604</v>
       </c>
       <c r="M25">
-        <v>52.54486848827925</v>
+        <v>30.91173685619138</v>
       </c>
       <c r="N25">
-        <v>0.07228132405138801</v>
+        <v>0.04252253993540776</v>
       </c>
       <c r="O25">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="P25">
-        <v>233.900748866163</v>
+        <v>137.601988689528</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1662,49 +1662,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>3.028711778223331</v>
+        <v>1.781767548292004</v>
       </c>
       <c r="C26">
-        <v>87.86665017064665</v>
+        <v>51.69126589622949</v>
       </c>
       <c r="D26">
-        <v>0.01061483680883091</v>
+        <v>0.006244625814967771</v>
       </c>
       <c r="E26">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="F26">
-        <v>2.997660714070344</v>
+        <v>1.763500449109598</v>
       </c>
       <c r="G26">
-        <v>22.52620327436979</v>
+        <v>13.25198992822141</v>
       </c>
       <c r="H26">
-        <v>1.017826619925287</v>
+        <v>0.5987794725830425</v>
       </c>
       <c r="I26">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="J26">
-        <v>6.097723270260007</v>
+        <v>3.587243104323255</v>
       </c>
       <c r="K26">
-        <v>30.71037937670806</v>
+        <v>18.06667698213692</v>
       </c>
       <c r="L26">
-        <v>20.32119143763056</v>
+        <v>11.95479863965106</v>
       </c>
       <c r="M26">
-        <v>123.7723568835022</v>
+        <v>72.81431348347299</v>
       </c>
       <c r="N26">
-        <v>0.3071956272183992</v>
+        <v>0.180720794725483</v>
       </c>
       <c r="O26">
-        <v>4.854952532266095</v>
+        <v>2.856130759185085</v>
       </c>
       <c r="P26">
-        <v>336.0371934742896</v>
+        <v>197.6880635049521</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1712,49 +1712,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.472051313055801</v>
+        <v>1.454288532499204</v>
       </c>
       <c r="C27">
-        <v>71.71724608789937</v>
+        <v>42.19069726312802</v>
       </c>
       <c r="D27">
-        <v>0.01194169140993477</v>
+        <v>0.007025204041838744</v>
       </c>
       <c r="E27">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="F27">
-        <v>1.951965116138829</v>
+        <v>1.148325873838808</v>
       </c>
       <c r="G27">
-        <v>14.66822538796172</v>
+        <v>8.62920274395813</v>
       </c>
       <c r="H27">
-        <v>0.9989779788155593</v>
+        <v>0.587690963831505</v>
       </c>
       <c r="I27">
-        <v>28.15509809057102</v>
+        <v>16.56342490475778</v>
       </c>
       <c r="J27">
-        <v>5.89542913333195</v>
+        <v>3.468235039250921</v>
       </c>
       <c r="K27">
-        <v>29.69155162487414</v>
+        <v>17.4673085514499</v>
       </c>
       <c r="L27">
-        <v>17.54140581644524</v>
+        <v>10.3194724106422</v>
       </c>
       <c r="M27">
-        <v>106.8412325928345</v>
+        <v>62.85386494092245</v>
       </c>
       <c r="N27">
-        <v>0.2349143031670111</v>
+        <v>0.1381982547900752</v>
       </c>
       <c r="O27">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="P27">
-        <v>288.211975567231</v>
+        <v>169.5528603240217</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1762,49 +1762,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.655609602645094</v>
+        <v>1.562274444516901</v>
       </c>
       <c r="C28">
-        <v>77.04249761339307</v>
+        <v>45.3235012568389</v>
       </c>
       <c r="D28">
-        <v>0.02122967361766182</v>
+        <v>0.01248925162993554</v>
       </c>
       <c r="E28">
-        <v>7.678801192458312</v>
+        <v>4.517378930831788</v>
       </c>
       <c r="F28">
-        <v>2.927947674208244</v>
+        <v>1.722488810758212</v>
       </c>
       <c r="G28">
-        <v>22.00233808194258</v>
+        <v>12.94380411593719</v>
       </c>
       <c r="H28">
-        <v>1.112069825473925</v>
+        <v>0.6542220163407315</v>
       </c>
       <c r="I28">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="J28">
-        <v>4.39267268758067</v>
+        <v>2.584175127284999</v>
       </c>
       <c r="K28">
-        <v>22.12311689696504</v>
+        <v>13.01485735206071</v>
       </c>
       <c r="L28">
-        <v>15.62431228459331</v>
+        <v>9.191661218222285</v>
       </c>
       <c r="M28">
-        <v>95.16459515099466</v>
+        <v>55.98459008399104</v>
       </c>
       <c r="N28">
-        <v>0.1626329791156231</v>
+        <v>0.09567571485466744</v>
       </c>
       <c r="O28">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="P28">
-        <v>284.8205603363884</v>
+        <v>167.5577171596751</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1812,49 +1812,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.400224156259992</v>
+        <v>1.412033175622714</v>
       </c>
       <c r="C29">
-        <v>69.63345201270613</v>
+        <v>40.96481743950201</v>
       </c>
       <c r="D29">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677447</v>
       </c>
       <c r="E29">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="F29">
-        <v>2.649095514759839</v>
+        <v>1.558442257352668</v>
       </c>
       <c r="G29">
-        <v>19.90687731223377</v>
+        <v>11.71106086680032</v>
       </c>
       <c r="H29">
-        <v>1.206313031022562</v>
+        <v>0.7096645600984208</v>
       </c>
       <c r="I29">
-        <v>33.99860901502915</v>
+        <v>20.00111686612262</v>
       </c>
       <c r="J29">
-        <v>3.872487764051379</v>
+        <v>2.278154388527565</v>
       </c>
       <c r="K29">
-        <v>19.50327410653497</v>
+        <v>11.47362424457984</v>
       </c>
       <c r="L29">
-        <v>9.873031689037484</v>
+        <v>5.808227640962546</v>
       </c>
       <c r="M29">
-        <v>60.13468282547513</v>
+        <v>35.37676551319678</v>
       </c>
       <c r="N29">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O29">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P29">
-        <v>227.4749570986131</v>
+        <v>133.8217454435963</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1862,49 +1862,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.519936084253009</v>
+        <v>1.482458770416864</v>
       </c>
       <c r="C30">
-        <v>73.10644213802814</v>
+        <v>43.00795047887867</v>
       </c>
       <c r="D30">
-        <v>0.01105712167586553</v>
+        <v>0.006504818557258096</v>
       </c>
       <c r="E30">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="F30">
-        <v>2.509669435035637</v>
+        <v>1.476418980649896</v>
       </c>
       <c r="G30">
-        <v>18.85914692737936</v>
+        <v>11.09468924223189</v>
       </c>
       <c r="H30">
-        <v>0.9989779788155593</v>
+        <v>0.587690963831505</v>
       </c>
       <c r="I30">
-        <v>28.15509809057102</v>
+        <v>16.56342490475778</v>
       </c>
       <c r="J30">
-        <v>5.953227458168539</v>
+        <v>3.502237343557301</v>
       </c>
       <c r="K30">
-        <v>29.98264526825525</v>
+        <v>17.63855667450333</v>
       </c>
       <c r="L30">
-        <v>12.07768925066721</v>
+        <v>7.105210512245447</v>
       </c>
       <c r="M30">
-        <v>73.56281588359094</v>
+        <v>43.27643159866793</v>
       </c>
       <c r="N30">
-        <v>0.144562648102776</v>
+        <v>0.08504507987081551</v>
       </c>
       <c r="O30">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="P30">
-        <v>254.1653274502112</v>
+        <v>149.5234824283777</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1912,49 +1912,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.575801650649749</v>
+        <v>1.515324047987469</v>
       </c>
       <c r="C31">
-        <v>74.72717086317843</v>
+        <v>43.96141256392112</v>
       </c>
       <c r="D31">
-        <v>0.01105712167586553</v>
+        <v>0.006504818557258096</v>
       </c>
       <c r="E31">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="F31">
-        <v>2.649095514759839</v>
+        <v>1.558442257352668</v>
       </c>
       <c r="G31">
-        <v>19.90687731223377</v>
+        <v>11.71106086680032</v>
       </c>
       <c r="H31">
-        <v>1.055523902144742</v>
+        <v>0.620956490086118</v>
       </c>
       <c r="I31">
-        <v>29.74878288815052</v>
+        <v>17.50097725785729</v>
       </c>
       <c r="J31">
-        <v>4.739462636600196</v>
+        <v>2.788188953123289</v>
       </c>
       <c r="K31">
-        <v>23.86967875725176</v>
+        <v>14.0423460903813</v>
       </c>
       <c r="L31">
-        <v>11.21499716133384</v>
+        <v>6.597695475656485</v>
       </c>
       <c r="M31">
-        <v>68.30832903476305</v>
+        <v>40.18525791304877</v>
       </c>
       <c r="N31">
-        <v>0.3614066202569401</v>
+        <v>0.2126126996770387</v>
       </c>
       <c r="O31">
-        <v>5.711708861489523</v>
+        <v>3.360153834335394</v>
       </c>
       <c r="P31">
-        <v>248.8792679455602</v>
+        <v>146.4137347952594</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1962,49 +1962,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>3.030706977023216</v>
+        <v>1.782941308205239</v>
       </c>
       <c r="C32">
-        <v>87.92453333940202</v>
+        <v>51.72531811355243</v>
       </c>
       <c r="D32">
-        <v>0.01194169140993477</v>
+        <v>0.007025204041838744</v>
       </c>
       <c r="E32">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="F32">
-        <v>1.673112956690425</v>
+        <v>0.9842793204332638</v>
       </c>
       <c r="G32">
-        <v>12.57276461825291</v>
+        <v>7.396459494821253</v>
       </c>
       <c r="H32">
-        <v>1.14976710769338</v>
+        <v>0.6763990338438073</v>
       </c>
       <c r="I32">
-        <v>32.40492421744965</v>
+        <v>19.06356451302313</v>
       </c>
       <c r="J32">
-        <v>5.606437509149012</v>
+        <v>3.298223517719013</v>
       </c>
       <c r="K32">
-        <v>28.23608340796854</v>
+        <v>16.61106793618275</v>
       </c>
       <c r="L32">
-        <v>10.54401442518566</v>
+        <v>6.202961558309516</v>
       </c>
       <c r="M32">
-        <v>64.22150593011909</v>
+        <v>37.78101171312277</v>
       </c>
       <c r="N32">
-        <v>0.2529846341798581</v>
+        <v>0.1488288897739271</v>
       </c>
       <c r="O32">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="P32">
-        <v>255.9462986883242</v>
+        <v>150.5712139356565</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2012,49 +2012,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>3.331981995805641</v>
+        <v>1.960179055103851</v>
       </c>
       <c r="C33">
-        <v>96.66489182146236</v>
+        <v>56.86720292931702</v>
       </c>
       <c r="D33">
-        <v>0.008845697340692422</v>
+        <v>0.005203854845806476</v>
       </c>
       <c r="E33">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="F33">
-        <v>4.601060630898668</v>
+        <v>2.706768131191476</v>
       </c>
       <c r="G33">
-        <v>34.57510270019549</v>
+        <v>20.34026361075845</v>
       </c>
       <c r="H33">
-        <v>1.168615748803107</v>
+        <v>0.6874875425953447</v>
       </c>
       <c r="I33">
-        <v>32.93615248330951</v>
+        <v>19.37608196405628</v>
       </c>
       <c r="J33">
-        <v>5.693134996403896</v>
+        <v>3.349226974178584</v>
       </c>
       <c r="K33">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="L33">
-        <v>10.06474104222267</v>
+        <v>5.921008760204536</v>
       </c>
       <c r="M33">
-        <v>61.30234656965913</v>
+        <v>36.06369299888993</v>
       </c>
       <c r="N33">
-        <v>0.1807033101284701</v>
+        <v>0.1063063498385194</v>
       </c>
       <c r="O33">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="P33">
-        <v>285.2556557968722</v>
+        <v>167.8136804300903</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2062,49 +2062,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>4.062224756563044</v>
+        <v>2.389775183348169</v>
       </c>
       <c r="C34">
-        <v>117.8501315859267</v>
+        <v>69.33031446951465</v>
       </c>
       <c r="D34">
-        <v>0.01194169140993477</v>
+        <v>0.007025204041838744</v>
       </c>
       <c r="E34">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="F34">
-        <v>2.71880855462194</v>
+        <v>1.599453895704054</v>
       </c>
       <c r="G34">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="H34">
-        <v>1.187464389912835</v>
+        <v>0.6985760513468828</v>
       </c>
       <c r="I34">
-        <v>33.46738074916932</v>
+        <v>19.68859941508945</v>
       </c>
       <c r="J34">
-        <v>3.410101165358678</v>
+        <v>2.006135954076513</v>
       </c>
       <c r="K34">
-        <v>17.17452495948602</v>
+        <v>10.10363926015239</v>
       </c>
       <c r="L34">
-        <v>3.83418706370388</v>
+        <v>2.255622384839824</v>
       </c>
       <c r="M34">
-        <v>23.35327488367967</v>
+        <v>13.73854971386283</v>
       </c>
       <c r="N34">
-        <v>0.397547282282634</v>
+        <v>0.2338739696447427</v>
       </c>
       <c r="O34">
-        <v>6.282879747638476</v>
+        <v>3.696169217768932</v>
       </c>
       <c r="P34">
-        <v>238.5005350051718</v>
+        <v>140.3080070470677</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2112,49 +2112,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3.912584846571772</v>
+        <v>2.301743189855479</v>
       </c>
       <c r="C35">
-        <v>113.5088939292741</v>
+        <v>66.77639817029383</v>
       </c>
       <c r="D35">
-        <v>0.01061483680883091</v>
+        <v>0.006244625814967771</v>
       </c>
       <c r="E35">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="F35">
-        <v>2.300530315449334</v>
+        <v>1.353384065595738</v>
       </c>
       <c r="G35">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="H35">
-        <v>1.394799442119838</v>
+        <v>0.820549647613799</v>
       </c>
       <c r="I35">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="J35">
-        <v>2.427529643136686</v>
+        <v>1.428096780868026</v>
       </c>
       <c r="K35">
-        <v>12.225933022007</v>
+        <v>7.192421168244076</v>
       </c>
       <c r="L35">
-        <v>2.396366914814924</v>
+        <v>1.40976399052489</v>
       </c>
       <c r="M35">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="N35">
-        <v>0.07228132405138801</v>
+        <v>0.04252253993540776</v>
       </c>
       <c r="O35">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="P35">
-        <v>214.4255164687859</v>
+        <v>126.144861164027</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2162,49 +2162,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.815225506635787</v>
+        <v>1.656175237575768</v>
       </c>
       <c r="C36">
-        <v>81.67315111382244</v>
+        <v>48.04767864267445</v>
       </c>
       <c r="D36">
-        <v>0.0145954006121425</v>
+        <v>0.008586360495580689</v>
       </c>
       <c r="E36">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="F36">
-        <v>2.021678156000931</v>
+        <v>1.189337512190194</v>
       </c>
       <c r="G36">
-        <v>15.19209058038892</v>
+        <v>8.937388556242347</v>
       </c>
       <c r="H36">
-        <v>1.319404877680928</v>
+        <v>0.7761956126076477</v>
       </c>
       <c r="I36">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="J36">
-        <v>1.531655608169575</v>
+        <v>0.9010610641191118</v>
       </c>
       <c r="K36">
-        <v>7.713981549599653</v>
+        <v>4.538075260915906</v>
       </c>
       <c r="L36">
-        <v>3.259059004148297</v>
+        <v>1.91727902711385</v>
       </c>
       <c r="M36">
-        <v>19.85028365112771</v>
+        <v>11.67776725678341</v>
       </c>
       <c r="N36">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O36">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P36">
-        <v>178.4635914263643</v>
+        <v>104.988740771388</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2212,49 +2212,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2.031112378281522</v>
+        <v>1.194887591674084</v>
       </c>
       <c r="C37">
-        <v>58.92506579296334</v>
+        <v>34.66515723475732</v>
       </c>
       <c r="D37">
-        <v>0.0229988130858003</v>
+        <v>0.01353002259909684</v>
       </c>
       <c r="E37">
-        <v>8.318701291829838</v>
+        <v>4.893827175067772</v>
       </c>
       <c r="F37">
-        <v>1.463973837104122</v>
+        <v>0.8612444053791062</v>
       </c>
       <c r="G37">
-        <v>11.00116904097129</v>
+        <v>6.471902057968596</v>
       </c>
       <c r="H37">
-        <v>1.130918466583652</v>
+        <v>0.6653105250922693</v>
       </c>
       <c r="I37">
-        <v>31.87369595158984</v>
+        <v>18.75104706198995</v>
       </c>
       <c r="J37">
-        <v>1.242663983986636</v>
+        <v>0.7310495425872036</v>
       </c>
       <c r="K37">
-        <v>6.258513332694057</v>
+        <v>3.681834645648753</v>
       </c>
       <c r="L37">
-        <v>3.354913680740894</v>
+        <v>1.973669586734845</v>
       </c>
       <c r="M37">
-        <v>20.43411552321971</v>
+        <v>12.02123099962998</v>
       </c>
       <c r="N37">
-        <v>0.09035165506423504</v>
+        <v>0.05315317491925969</v>
       </c>
       <c r="O37">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="P37">
-        <v>147.5761209634873</v>
+        <v>86.81788248263209</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2262,49 +2262,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.522336684311201</v>
+        <v>0.8955788137989442</v>
       </c>
       <c r="C38">
-        <v>44.16485776034481</v>
+        <v>25.98184181740652</v>
       </c>
       <c r="D38">
-        <v>0.01326854601103864</v>
+        <v>0.007805782268709712</v>
       </c>
       <c r="E38">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="F38">
-        <v>0.7668434384831115</v>
+        <v>0.4511280218652461</v>
       </c>
       <c r="G38">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="H38">
-        <v>1.112069825473925</v>
+        <v>0.6542220163407315</v>
       </c>
       <c r="I38">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="J38">
-        <v>0.7802773852939345</v>
+        <v>0.4590311081361511</v>
       </c>
       <c r="K38">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="L38">
-        <v>1.725384178666745</v>
+        <v>1.015030073177921</v>
       </c>
       <c r="M38">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="N38">
-        <v>0.09035165506423504</v>
+        <v>0.05315317491925969</v>
       </c>
       <c r="O38">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="P38">
-        <v>107.946290120038</v>
+        <v>63.50396167680998</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2312,49 +2312,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.9596906227440201</v>
+        <v>0.5645785182664383</v>
       </c>
       <c r="C39">
-        <v>27.84180417133139</v>
+        <v>16.37911653233622</v>
       </c>
       <c r="D39">
-        <v>0.01769139468138484</v>
+        <v>0.01040770969161295</v>
       </c>
       <c r="E39">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="F39">
-        <v>0.7668434384831115</v>
+        <v>0.4511280218652461</v>
       </c>
       <c r="G39">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="H39">
-        <v>0.6220051566210086</v>
+        <v>0.3659207888007483</v>
       </c>
       <c r="I39">
-        <v>17.53053277337441</v>
+        <v>10.31307588409447</v>
       </c>
       <c r="J39">
-        <v>0.6935798980390531</v>
+        <v>0.4080276516765789</v>
       </c>
       <c r="K39">
-        <v>3.493123720573428</v>
+        <v>2.054977476641165</v>
       </c>
       <c r="L39">
-        <v>1.246110795703761</v>
+        <v>0.7330772750729425</v>
       </c>
       <c r="M39">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="N39">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O39">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P39">
-        <v>73.5300259673366</v>
+        <v>43.25714154633831</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2362,49 +2362,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.5646412603670639</v>
+        <v>0.3321740554457423</v>
       </c>
       <c r="C40">
-        <v>16.38093675776878</v>
+        <v>9.636777502393244</v>
       </c>
       <c r="D40">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677447</v>
       </c>
       <c r="E40">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="F40">
-        <v>0.2788521594484041</v>
+        <v>0.164046553405544</v>
       </c>
       <c r="G40">
-        <v>2.095460769708817</v>
+        <v>1.232743249136876</v>
       </c>
       <c r="H40">
-        <v>0.282729616645913</v>
+        <v>0.1663276312730673</v>
       </c>
       <c r="I40">
-        <v>7.968423987897459</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="J40">
-        <v>0.6357815732024655</v>
+        <v>0.3740253473701972</v>
       </c>
       <c r="K40">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="L40">
-        <v>2.108802885037132</v>
+        <v>1.240592311661903</v>
       </c>
       <c r="M40">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="N40">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O40">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P40">
-        <v>50.65886994479489</v>
+        <v>29.80221860322717</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2412,49 +2412,49 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.3411789947800986</v>
+        <v>0.2007129451633284</v>
       </c>
       <c r="C41">
-        <v>9.898021857167707</v>
+        <v>5.822929162223479</v>
       </c>
       <c r="D41">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E41">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F41">
-        <v>0.06971303986210103</v>
+        <v>0.041011638351386</v>
       </c>
       <c r="G41">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="H41">
-        <v>0.1130918466583652</v>
+        <v>0.06653105250922695</v>
       </c>
       <c r="I41">
-        <v>3.187369595158982</v>
+        <v>1.875104706198995</v>
       </c>
       <c r="J41">
-        <v>0.924773197385404</v>
+        <v>0.544036868902105</v>
       </c>
       <c r="K41">
-        <v>4.657498294097903</v>
+        <v>2.739969968854886</v>
       </c>
       <c r="L41">
-        <v>2.012948208444536</v>
+        <v>1.184201752040908</v>
       </c>
       <c r="M41">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="N41">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O41">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P41">
-        <v>37.01967957907002</v>
+        <v>21.778389147629</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,43 +2462,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.255385446385103</v>
+        <v>0.1502412688941873</v>
       </c>
       <c r="C42">
-        <v>7.409045600686938</v>
+        <v>4.358683817336872</v>
       </c>
       <c r="D42">
-        <v>0.01149940654290015</v>
+        <v>0.00676501129954842</v>
       </c>
       <c r="E42">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="F42">
-        <v>0.1394260797242021</v>
+        <v>0.082023276702772</v>
       </c>
       <c r="G42">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="H42">
-        <v>0.03769728221945507</v>
+        <v>0.02217701750307565</v>
       </c>
       <c r="I42">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="J42">
-        <v>0.7802773852939345</v>
+        <v>0.4590311081361511</v>
       </c>
       <c r="K42">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="L42">
-        <v>1.437820148888954</v>
+        <v>0.8458583943149337</v>
       </c>
       <c r="M42">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="P42">
-        <v>29.02793117925545</v>
+        <v>17.07690581227607</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2506,43 +2506,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1496399099912714</v>
+        <v>0.08803199349268792</v>
       </c>
       <c r="C43">
-        <v>4.341237656652502</v>
+        <v>2.553916299220825</v>
       </c>
       <c r="D43">
-        <v>0.005307418404415455</v>
+        <v>0.003122312907483885</v>
       </c>
       <c r="E43">
-        <v>1.919700298114578</v>
+        <v>1.129344732707947</v>
       </c>
       <c r="F43">
-        <v>0.2091391195863031</v>
+        <v>0.123034915054158</v>
       </c>
       <c r="G43">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="H43">
-        <v>0.01884864110972754</v>
+        <v>0.01108850875153783</v>
       </c>
       <c r="I43">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="J43">
-        <v>0.6068824107841715</v>
+        <v>0.3570241952170064</v>
       </c>
       <c r="K43">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="L43">
-        <v>2.108802885037132</v>
+        <v>1.240592311661903</v>
       </c>
       <c r="M43">
-        <v>12.84430118602382</v>
+        <v>7.556202342624556</v>
       </c>
       <c r="P43">
-        <v>27.36316662434712</v>
+        <v>16.09753779158495</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.2035102775881291</v>
+        <v>0.1197235111500555</v>
       </c>
       <c r="C44">
-        <v>5.904083213047406</v>
+        <v>3.473326166940321</v>
       </c>
       <c r="D44">
-        <v>0.00398056380331159</v>
+        <v>0.002341734680612914</v>
       </c>
       <c r="E44">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="F44">
-        <v>0.2091391195863031</v>
+        <v>0.123034915054158</v>
       </c>
       <c r="G44">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="H44">
-        <v>0.1507891288778203</v>
+        <v>0.0887080700123026</v>
       </c>
       <c r="I44">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="J44">
-        <v>0.5779832483658773</v>
+        <v>0.3400230430638157</v>
       </c>
       <c r="K44">
-        <v>2.91093643381119</v>
+        <v>1.712481230534304</v>
       </c>
       <c r="L44">
-        <v>1.150256119111164</v>
+        <v>0.6766867154519475</v>
       </c>
       <c r="M44">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="P44">
-        <v>25.37785749704129</v>
+        <v>14.92959589569531</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.4090157539761416</v>
+        <v>0.2406207822133468</v>
       </c>
       <c r="C45">
-        <v>11.86604959485017</v>
+        <v>6.980704551203585</v>
       </c>
       <c r="D45">
-        <v>0.006191988138484697</v>
+        <v>0.003642698392064533</v>
       </c>
       <c r="E45">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="F45">
-        <v>0.2091391195863031</v>
+        <v>0.123034915054158</v>
       </c>
       <c r="G45">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="H45">
-        <v>0.09424320554863769</v>
+        <v>0.05544254375768912</v>
       </c>
       <c r="I45">
-        <v>2.656141329299152</v>
+        <v>1.56258725516583</v>
       </c>
       <c r="J45">
-        <v>0.7802773852939345</v>
+        <v>0.4590311081361511</v>
       </c>
       <c r="K45">
-        <v>3.929764185645107</v>
+        <v>2.311849661221311</v>
       </c>
       <c r="L45">
-        <v>2.396366914814924</v>
+        <v>1.40976399052489</v>
       </c>
       <c r="M45">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="N45">
-        <v>0.05421099303854103</v>
+        <v>0.03189190495155583</v>
       </c>
       <c r="O45">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="P45">
-        <v>41.66519952679657</v>
+        <v>24.51131234861375</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.21308087032924</v>
+        <v>0.7136460272473897</v>
       </c>
       <c r="C46">
-        <v>35.19296660326297</v>
+        <v>20.70374813235015</v>
       </c>
       <c r="D46">
-        <v>0.007961127606623181</v>
+        <v>0.004683469361225829</v>
       </c>
       <c r="E46">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="F46">
-        <v>1.32454775737992</v>
+        <v>0.779221128676334</v>
       </c>
       <c r="G46">
-        <v>9.953438656116884</v>
+        <v>5.855530433400159</v>
       </c>
       <c r="H46">
-        <v>0.4146701044140058</v>
+        <v>0.243947192533832</v>
       </c>
       <c r="I46">
-        <v>11.68702184891627</v>
+        <v>6.875383922729651</v>
       </c>
       <c r="J46">
-        <v>1.79174806993422</v>
+        <v>1.054071433497828</v>
       </c>
       <c r="K46">
-        <v>9.023902944814688</v>
+        <v>5.308691814656343</v>
       </c>
       <c r="L46">
-        <v>4.601024476444655</v>
+        <v>2.70674686180779</v>
       </c>
       <c r="M46">
-        <v>28.02392986041559</v>
+        <v>16.48625965663539</v>
       </c>
       <c r="N46">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O46">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P46">
-        <v>106.4174985408943</v>
+        <v>62.60458549865864</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>2.059045161479893</v>
+        <v>1.211320230459385</v>
       </c>
       <c r="C47">
-        <v>59.73543015553847</v>
+        <v>35.14188827727855</v>
       </c>
       <c r="D47">
-        <v>0.005749703271450076</v>
+        <v>0.00338250564977421</v>
       </c>
       <c r="E47">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="F47">
-        <v>1.812539036414627</v>
+        <v>1.066302597136036</v>
       </c>
       <c r="G47">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="H47">
-        <v>1.112069825473925</v>
+        <v>0.6542220163407315</v>
       </c>
       <c r="I47">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="J47">
-        <v>2.45642880555498</v>
+        <v>1.445097933021217</v>
       </c>
       <c r="K47">
-        <v>12.37147984369756</v>
+        <v>7.278045229770792</v>
       </c>
       <c r="L47">
-        <v>6.326408655111401</v>
+        <v>3.721776934985709</v>
       </c>
       <c r="M47">
-        <v>38.53290355807145</v>
+        <v>22.66860702787367</v>
       </c>
       <c r="N47">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O47">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P47">
-        <v>175.0985620454564</v>
+        <v>103.0091201970368</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>3.234217254611344</v>
+        <v>1.902664819355293</v>
       </c>
       <c r="C48">
-        <v>93.82861655244939</v>
+        <v>55.19864428049274</v>
       </c>
       <c r="D48">
-        <v>0.005749703271450076</v>
+        <v>0.00338250564977421</v>
       </c>
       <c r="E48">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="F48">
-        <v>1.812539036414627</v>
+        <v>1.066302597136036</v>
       </c>
       <c r="G48">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="H48">
-        <v>1.394799442119838</v>
+        <v>0.820549647613799</v>
       </c>
       <c r="I48">
-        <v>39.31089167362747</v>
+        <v>23.12629137645428</v>
       </c>
       <c r="J48">
-        <v>3.670193627123323</v>
+        <v>2.159146323455229</v>
       </c>
       <c r="K48">
-        <v>18.48444635470106</v>
+        <v>10.87425581389283</v>
       </c>
       <c r="L48">
-        <v>7.189100744444771</v>
+        <v>4.22929197157467</v>
       </c>
       <c r="M48">
-        <v>43.78739040689937</v>
+        <v>25.75978071349281</v>
       </c>
       <c r="N48">
-        <v>0.3794769512697871</v>
+        <v>0.2232433346608907</v>
       </c>
       <c r="O48">
-        <v>5.997294304564</v>
+        <v>3.528161526052164</v>
       </c>
       <c r="P48">
-        <v>234.7948863775612</v>
+        <v>138.1280028229872</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>3.144433308616582</v>
+        <v>1.849845623259682</v>
       </c>
       <c r="C49">
-        <v>91.22387395845793</v>
+        <v>53.6662945009603</v>
       </c>
       <c r="D49">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E49">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F49">
-        <v>1.951965116138829</v>
+        <v>1.148325873838808</v>
       </c>
       <c r="G49">
-        <v>14.66822538796172</v>
+        <v>8.62920274395813</v>
       </c>
       <c r="H49">
-        <v>1.319404877680928</v>
+        <v>0.7761956126076477</v>
       </c>
       <c r="I49">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="J49">
-        <v>3.06331121633915</v>
+        <v>1.802122128238224</v>
       </c>
       <c r="K49">
-        <v>15.42796309919931</v>
+        <v>9.076150521831812</v>
       </c>
       <c r="L49">
-        <v>8.626920893333725</v>
+        <v>5.075150365889604</v>
       </c>
       <c r="M49">
-        <v>52.54486848827925</v>
+        <v>30.91173685619138</v>
       </c>
       <c r="N49">
-        <v>0.07228132405138801</v>
+        <v>0.04252253993540776</v>
       </c>
       <c r="O49">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="P49">
-        <v>233.900748866163</v>
+        <v>137.601988689528</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.781767548292004</v>
+        <v>3.028711778223331</v>
       </c>
       <c r="C2">
-        <v>51.69126589622949</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="D2">
-        <v>0.006244625814967771</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E2">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F2">
-        <v>1.763500449109598</v>
+        <v>2.997660714070344</v>
       </c>
       <c r="G2">
-        <v>13.25198992822141</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="H2">
-        <v>0.5987794725830425</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I2">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J2">
-        <v>3.587243104323255</v>
+        <v>6.097723270260007</v>
       </c>
       <c r="K2">
-        <v>18.06667698213692</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="L2">
-        <v>11.95479863965106</v>
+        <v>20.32119143763056</v>
       </c>
       <c r="M2">
-        <v>72.81431348347299</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="N2">
-        <v>0.180720794725483</v>
+        <v>0.3071956272183992</v>
       </c>
       <c r="O2">
-        <v>2.856130759185085</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="P2">
-        <v>197.6880635049521</v>
+        <v>336.0371934742896</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.325174942043262</v>
+        <v>2.252579445068605</v>
       </c>
       <c r="C3">
-        <v>38.44495335760412</v>
+        <v>65.35009752480902</v>
       </c>
       <c r="D3">
-        <v>0.006504818557258096</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E3">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F3">
-        <v>1.722488810758212</v>
+        <v>2.927947674208244</v>
       </c>
       <c r="G3">
-        <v>12.94380411593719</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="H3">
-        <v>0.4213633325584373</v>
+        <v>0.7162483621696465</v>
       </c>
       <c r="I3">
-        <v>11.8756631392603</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="J3">
-        <v>3.740253473701971</v>
+        <v>6.357815732024653</v>
       </c>
       <c r="K3">
-        <v>18.83729353587734</v>
+        <v>32.02030077192308</v>
       </c>
       <c r="L3">
-        <v>8.402193383528342</v>
+        <v>14.28234681229695</v>
       </c>
       <c r="M3">
-        <v>51.17609768413904</v>
+        <v>86.99094894170673</v>
       </c>
       <c r="N3">
-        <v>0.1381982547900752</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O3">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P3">
-        <v>153.5708903675485</v>
+        <v>261.0452552547061</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.433160854060959</v>
+        <v>2.436137734657895</v>
       </c>
       <c r="C4">
-        <v>41.57775735131501</v>
+        <v>70.67534905030274</v>
       </c>
       <c r="D4">
-        <v>0.007025204041838744</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E4">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F4">
-        <v>1.43540734229851</v>
+        <v>2.439956395173535</v>
       </c>
       <c r="G4">
-        <v>10.78650342994766</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="H4">
-        <v>0.5987794725830425</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I4">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J4">
-        <v>3.077208539727531</v>
+        <v>5.230748397711191</v>
       </c>
       <c r="K4">
-        <v>15.49795513633545</v>
+        <v>26.34397472599127</v>
       </c>
       <c r="L4">
-        <v>8.289412264286353</v>
+        <v>14.09063745911175</v>
       </c>
       <c r="M4">
-        <v>50.4891701984459</v>
+        <v>85.82328519752278</v>
       </c>
       <c r="N4">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O4">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P4">
-        <v>153.6811777576298</v>
+        <v>261.2327256784711</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.335738781262384</v>
+        <v>2.270536234267557</v>
       </c>
       <c r="C5">
-        <v>38.75142331351062</v>
+        <v>65.87104604360728</v>
       </c>
       <c r="D5">
-        <v>0.008586360495580689</v>
+        <v>0.0145954006121425</v>
       </c>
       <c r="E5">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="F5">
-        <v>1.886535364163756</v>
+        <v>3.206799833656648</v>
       </c>
       <c r="G5">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="H5">
-        <v>0.4878943850676641</v>
+        <v>0.8293402088280116</v>
       </c>
       <c r="I5">
-        <v>13.7507678454593</v>
+        <v>23.37404369783255</v>
       </c>
       <c r="J5">
-        <v>2.584175127284999</v>
+        <v>4.39267268758067</v>
       </c>
       <c r="K5">
-        <v>13.01485735206071</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="L5">
-        <v>7.499944429592413</v>
+        <v>12.7486719868154</v>
       </c>
       <c r="M5">
-        <v>45.68067779859392</v>
+        <v>77.64963898823488</v>
       </c>
       <c r="N5">
-        <v>0.1169369848223713</v>
+        <v>0.198773641141317</v>
       </c>
       <c r="O5">
-        <v>1.848084608884466</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="P5">
-        <v>144.2478677312191</v>
+        <v>245.1976501648272</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.387384217444762</v>
+        <v>2.358324981462435</v>
       </c>
       <c r="C6">
-        <v>40.24972087572019</v>
+        <v>68.41790546884344</v>
       </c>
       <c r="D6">
-        <v>0.01040770969161295</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E6">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F6">
-        <v>1.599453895704054</v>
+        <v>2.71880855462194</v>
       </c>
       <c r="G6">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H6">
-        <v>0.632044998837656</v>
+        <v>1.07437254325447</v>
       </c>
       <c r="I6">
-        <v>17.81349470889045</v>
+        <v>30.28001115401034</v>
       </c>
       <c r="J6">
-        <v>2.992202778961578</v>
+        <v>5.086252585619724</v>
       </c>
       <c r="K6">
-        <v>15.06983482870187</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="L6">
-        <v>7.781897227697391</v>
+        <v>13.22794536977838</v>
       </c>
       <c r="M6">
-        <v>47.39799651282676</v>
+        <v>80.56879834869484</v>
       </c>
       <c r="N6">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O6">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P6">
-        <v>152.8618267963282</v>
+        <v>259.8399638059295</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.363909019180045</v>
+        <v>2.318421005464764</v>
       </c>
       <c r="C7">
-        <v>39.5686765292613</v>
+        <v>67.26024209373611</v>
       </c>
       <c r="D7">
-        <v>0.008326167753290363</v>
+        <v>0.01415311574510788</v>
       </c>
       <c r="E7">
-        <v>3.011585953887858</v>
+        <v>5.119200794972208</v>
       </c>
       <c r="F7">
-        <v>1.968558640866528</v>
+        <v>3.34622591338085</v>
       </c>
       <c r="G7">
-        <v>14.79291898964251</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="H7">
-        <v>0.4768058763161264</v>
+        <v>0.8104915677182839</v>
       </c>
       <c r="I7">
-        <v>13.43825039442613</v>
+        <v>22.84281543197271</v>
       </c>
       <c r="J7">
-        <v>3.366228126331776</v>
+        <v>5.722034158822189</v>
       </c>
       <c r="K7">
-        <v>16.95356418228961</v>
+        <v>28.81827069473078</v>
       </c>
       <c r="L7">
-        <v>7.951068906560379</v>
+        <v>13.51550939955617</v>
       </c>
       <c r="M7">
-        <v>48.42838774136647</v>
+        <v>82.32029396497082</v>
       </c>
       <c r="N7">
-        <v>0.1169369848223713</v>
+        <v>0.198773641141317</v>
       </c>
       <c r="O7">
-        <v>1.848084608884466</v>
+        <v>3.141439873819238</v>
       </c>
       <c r="P7">
-        <v>153.2933021215889</v>
+        <v>260.5734008925364</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.436682133800667</v>
+        <v>2.442123331057548</v>
       </c>
       <c r="C8">
-        <v>41.67991400328383</v>
+        <v>70.84899855656887</v>
       </c>
       <c r="D8">
-        <v>0.009106745980161337</v>
+        <v>0.01547997034621174</v>
       </c>
       <c r="E8">
-        <v>3.293922137064845</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="F8">
-        <v>1.353384065595738</v>
+        <v>2.300530315449334</v>
       </c>
       <c r="G8">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H8">
-        <v>0.5100714025707399</v>
+        <v>0.8670374910474667</v>
       </c>
       <c r="I8">
-        <v>14.37580274752563</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="J8">
-        <v>3.02620508326796</v>
+        <v>5.144050910456309</v>
       </c>
       <c r="K8">
-        <v>15.24108295175531</v>
+        <v>25.9073342609196</v>
       </c>
       <c r="L8">
-        <v>6.090180439067523</v>
+        <v>10.35230507200047</v>
       </c>
       <c r="M8">
-        <v>37.09408422742965</v>
+        <v>63.05384218593508</v>
       </c>
       <c r="N8">
-        <v>0.1488288897739271</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O8">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P8">
-        <v>136.78150431653</v>
+        <v>232.5060603801542</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.960179055103851</v>
+        <v>3.331981995805641</v>
       </c>
       <c r="C9">
-        <v>56.86720292931702</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="D9">
-        <v>0.005203854845806476</v>
+        <v>0.008845697340692422</v>
       </c>
       <c r="E9">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="F9">
-        <v>2.706768131191476</v>
+        <v>4.601060630898668</v>
       </c>
       <c r="G9">
-        <v>20.34026361075845</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="H9">
-        <v>0.6874875425953447</v>
+        <v>1.168615748803107</v>
       </c>
       <c r="I9">
-        <v>19.37608196405628</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="J9">
-        <v>3.349226974178584</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K9">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L9">
-        <v>5.921008760204536</v>
+        <v>10.06474104222267</v>
       </c>
       <c r="M9">
-        <v>36.06369299888993</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="N9">
-        <v>0.1063063498385194</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O9">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P9">
-        <v>167.8136804300903</v>
+        <v>285.2556557968722</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.389775183348169</v>
+        <v>4.062224756563044</v>
       </c>
       <c r="C10">
-        <v>69.33031446951465</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="D10">
-        <v>0.007025204041838744</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E10">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F10">
-        <v>1.599453895704054</v>
+        <v>2.71880855462194</v>
       </c>
       <c r="G10">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H10">
-        <v>0.6985760513468828</v>
+        <v>1.187464389912835</v>
       </c>
       <c r="I10">
-        <v>19.68859941508945</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="J10">
-        <v>2.006135954076513</v>
+        <v>3.410101165358678</v>
       </c>
       <c r="K10">
-        <v>10.10363926015239</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="L10">
-        <v>2.255622384839824</v>
+        <v>3.83418706370388</v>
       </c>
       <c r="M10">
-        <v>13.73854971386283</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="N10">
-        <v>0.2338739696447427</v>
+        <v>0.397547282282634</v>
       </c>
       <c r="O10">
-        <v>3.696169217768932</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="P10">
-        <v>140.3080070470677</v>
+        <v>238.5005350051718</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.301743189855479</v>
+        <v>3.912584846571772</v>
       </c>
       <c r="C11">
-        <v>66.77639817029383</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="D11">
-        <v>0.006244625814967771</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E11">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F11">
-        <v>1.353384065595738</v>
+        <v>2.300530315449334</v>
       </c>
       <c r="G11">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H11">
-        <v>0.820549647613799</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I11">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J11">
-        <v>1.428096780868026</v>
+        <v>2.427529643136686</v>
       </c>
       <c r="K11">
-        <v>7.192421168244076</v>
+        <v>12.225933022007</v>
       </c>
       <c r="L11">
-        <v>1.40976399052489</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M11">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N11">
-        <v>0.04252253993540776</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O11">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P11">
-        <v>126.144861164027</v>
+        <v>214.4255164687859</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.656175237575768</v>
+        <v>2.815225506635787</v>
       </c>
       <c r="C12">
-        <v>48.04767864267445</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="D12">
-        <v>0.008586360495580689</v>
+        <v>0.0145954006121425</v>
       </c>
       <c r="E12">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="F12">
-        <v>1.189337512190194</v>
+        <v>2.021678156000931</v>
       </c>
       <c r="G12">
-        <v>8.937388556242347</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="H12">
-        <v>0.7761956126076477</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I12">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J12">
-        <v>0.9010610641191118</v>
+        <v>1.531655608169575</v>
       </c>
       <c r="K12">
-        <v>4.538075260915906</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="L12">
-        <v>1.91727902711385</v>
+        <v>3.259059004148297</v>
       </c>
       <c r="M12">
-        <v>11.67776725678341</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="N12">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O12">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P12">
-        <v>104.988740771388</v>
+        <v>178.4635914263643</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.194887591674084</v>
+        <v>2.031112378281522</v>
       </c>
       <c r="C13">
-        <v>34.66515723475732</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="D13">
-        <v>0.01353002259909684</v>
+        <v>0.0229988130858003</v>
       </c>
       <c r="E13">
-        <v>4.893827175067772</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="F13">
-        <v>0.8612444053791062</v>
+        <v>1.463973837104122</v>
       </c>
       <c r="G13">
-        <v>6.471902057968596</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="H13">
-        <v>0.6653105250922693</v>
+        <v>1.130918466583652</v>
       </c>
       <c r="I13">
-        <v>18.75104706198995</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="J13">
-        <v>0.7310495425872036</v>
+        <v>1.242663983986636</v>
       </c>
       <c r="K13">
-        <v>3.681834645648753</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="L13">
-        <v>1.973669586734845</v>
+        <v>3.354913680740894</v>
       </c>
       <c r="M13">
-        <v>12.02123099962998</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="N13">
-        <v>0.05315317491925969</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O13">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P13">
-        <v>86.81788248263209</v>
+        <v>147.5761209634873</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.8955788137989442</v>
+        <v>1.522336684311201</v>
       </c>
       <c r="C14">
-        <v>25.98184181740652</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="D14">
-        <v>0.007805782268709712</v>
+        <v>0.01326854601103864</v>
       </c>
       <c r="E14">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="F14">
-        <v>0.4511280218652461</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G14">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H14">
-        <v>0.6542220163407315</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I14">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J14">
-        <v>0.4590311081361511</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K14">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L14">
-        <v>1.015030073177921</v>
+        <v>1.725384178666745</v>
       </c>
       <c r="M14">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="N14">
-        <v>0.05315317491925969</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O14">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P14">
-        <v>63.50396167680998</v>
+        <v>107.946290120038</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.5645785182664383</v>
+        <v>0.9596906227440201</v>
       </c>
       <c r="C15">
-        <v>16.37911653233622</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="D15">
-        <v>0.01040770969161295</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E15">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F15">
-        <v>0.4511280218652461</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G15">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H15">
-        <v>0.3659207888007483</v>
+        <v>0.6220051566210086</v>
       </c>
       <c r="I15">
-        <v>10.31307588409447</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="J15">
-        <v>0.4080276516765789</v>
+        <v>0.6935798980390531</v>
       </c>
       <c r="K15">
-        <v>2.054977476641165</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="L15">
-        <v>0.7330772750729425</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M15">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="N15">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O15">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P15">
-        <v>43.25714154633831</v>
+        <v>73.5300259673366</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.3321740554457423</v>
+        <v>0.5646412603670639</v>
       </c>
       <c r="C16">
-        <v>9.636777502393244</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="D16">
-        <v>0.005984433072677447</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E16">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F16">
-        <v>0.164046553405544</v>
+        <v>0.2788521594484041</v>
       </c>
       <c r="G16">
-        <v>1.232743249136876</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="H16">
-        <v>0.1663276312730673</v>
+        <v>0.282729616645913</v>
       </c>
       <c r="I16">
-        <v>4.687761765497489</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="J16">
-        <v>0.3740253473701972</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K16">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L16">
-        <v>1.240592311661903</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M16">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="N16">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O16">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P16">
-        <v>29.80221860322717</v>
+        <v>50.65886994479489</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,49 +1230,49 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.2007129451633284</v>
+        <v>0.3411789947800986</v>
       </c>
       <c r="C17">
-        <v>5.822929162223479</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="D17">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E17">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F17">
-        <v>0.041011638351386</v>
+        <v>0.06971303986210103</v>
       </c>
       <c r="G17">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="H17">
-        <v>0.06653105250922695</v>
+        <v>0.1130918466583652</v>
       </c>
       <c r="I17">
-        <v>1.875104706198995</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="J17">
-        <v>0.544036868902105</v>
+        <v>0.924773197385404</v>
       </c>
       <c r="K17">
-        <v>2.739969968854886</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="L17">
-        <v>1.184201752040908</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M17">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="N17">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O17">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P17">
-        <v>21.778389147629</v>
+        <v>37.01967957907002</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1280,43 +1280,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1502412688941873</v>
+        <v>0.255385446385103</v>
       </c>
       <c r="C18">
-        <v>4.358683817336872</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="D18">
-        <v>0.00676501129954842</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E18">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F18">
-        <v>0.082023276702772</v>
+        <v>0.1394260797242021</v>
       </c>
       <c r="G18">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H18">
-        <v>0.02217701750307565</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I18">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J18">
-        <v>0.4590311081361511</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K18">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L18">
-        <v>0.8458583943149337</v>
+        <v>1.437820148888954</v>
       </c>
       <c r="M18">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="P18">
-        <v>17.07690581227607</v>
+        <v>29.02793117925545</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.08803199349268792</v>
+        <v>0.1496399099912714</v>
       </c>
       <c r="C19">
-        <v>2.553916299220825</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="D19">
-        <v>0.003122312907483885</v>
+        <v>0.005307418404415455</v>
       </c>
       <c r="E19">
-        <v>1.129344732707947</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="F19">
-        <v>0.123034915054158</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G19">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H19">
-        <v>0.01108850875153783</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I19">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J19">
-        <v>0.3570241952170064</v>
+        <v>0.6068824107841715</v>
       </c>
       <c r="K19">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="L19">
-        <v>1.240592311661903</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M19">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="P19">
-        <v>16.09753779158495</v>
+        <v>27.36316662434712</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,43 +1368,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1197235111500555</v>
+        <v>0.2035102775881291</v>
       </c>
       <c r="C20">
-        <v>3.473326166940321</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="D20">
-        <v>0.002341734680612914</v>
+        <v>0.00398056380331159</v>
       </c>
       <c r="E20">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="F20">
-        <v>0.123034915054158</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G20">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H20">
-        <v>0.0887080700123026</v>
+        <v>0.1507891288778203</v>
       </c>
       <c r="I20">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="J20">
-        <v>0.3400230430638157</v>
+        <v>0.5779832483658773</v>
       </c>
       <c r="K20">
-        <v>1.712481230534304</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="L20">
-        <v>0.6766867154519475</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M20">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="P20">
-        <v>14.92959589569531</v>
+        <v>25.37785749704129</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1412,49 +1412,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2406207822133468</v>
+        <v>0.4090157539761416</v>
       </c>
       <c r="C21">
-        <v>6.980704551203585</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="D21">
-        <v>0.003642698392064533</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E21">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F21">
-        <v>0.123034915054158</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G21">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H21">
-        <v>0.05544254375768912</v>
+        <v>0.09424320554863769</v>
       </c>
       <c r="I21">
-        <v>1.56258725516583</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="J21">
-        <v>0.4590311081361511</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K21">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L21">
-        <v>1.40976399052489</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M21">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N21">
-        <v>0.03189190495155583</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O21">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P21">
-        <v>24.51131234861375</v>
+        <v>41.66519952679657</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1462,49 +1462,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.7136460272473897</v>
+        <v>1.21308087032924</v>
       </c>
       <c r="C22">
-        <v>20.70374813235015</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="D22">
-        <v>0.004683469361225829</v>
+        <v>0.007961127606623181</v>
       </c>
       <c r="E22">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="F22">
-        <v>0.779221128676334</v>
+        <v>1.32454775737992</v>
       </c>
       <c r="G22">
-        <v>5.855530433400159</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="H22">
-        <v>0.243947192533832</v>
+        <v>0.4146701044140058</v>
       </c>
       <c r="I22">
-        <v>6.875383922729651</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="J22">
-        <v>1.054071433497828</v>
+        <v>1.79174806993422</v>
       </c>
       <c r="K22">
-        <v>5.308691814656343</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="L22">
-        <v>2.70674686180779</v>
+        <v>4.601024476444655</v>
       </c>
       <c r="M22">
-        <v>16.48625965663539</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="N22">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O22">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P22">
-        <v>62.60458549865864</v>
+        <v>106.4174985408943</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1512,49 +1512,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.211320230459385</v>
+        <v>2.059045161479893</v>
       </c>
       <c r="C23">
-        <v>35.14188827727855</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="D23">
-        <v>0.00338250564977421</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E23">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F23">
-        <v>1.066302597136036</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G23">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H23">
-        <v>0.6542220163407315</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I23">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J23">
-        <v>1.445097933021217</v>
+        <v>2.45642880555498</v>
       </c>
       <c r="K23">
-        <v>7.278045229770792</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="L23">
-        <v>3.721776934985709</v>
+        <v>6.326408655111401</v>
       </c>
       <c r="M23">
-        <v>22.66860702787367</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="N23">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O23">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P23">
-        <v>103.0091201970368</v>
+        <v>175.0985620454564</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1562,49 +1562,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.902664819355293</v>
+        <v>3.234217254611344</v>
       </c>
       <c r="C24">
-        <v>55.19864428049274</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="D24">
-        <v>0.00338250564977421</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E24">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F24">
-        <v>1.066302597136036</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G24">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H24">
-        <v>0.820549647613799</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I24">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J24">
-        <v>2.159146323455229</v>
+        <v>3.670193627123323</v>
       </c>
       <c r="K24">
-        <v>10.87425581389283</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="L24">
-        <v>4.22929197157467</v>
+        <v>7.189100744444771</v>
       </c>
       <c r="M24">
-        <v>25.75978071349281</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="N24">
-        <v>0.2232433346608907</v>
+        <v>0.3794769512697871</v>
       </c>
       <c r="O24">
-        <v>3.528161526052164</v>
+        <v>5.997294304564</v>
       </c>
       <c r="P24">
-        <v>138.1280028229872</v>
+        <v>234.7948863775612</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1612,49 +1612,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.849845623259682</v>
+        <v>3.144433308616582</v>
       </c>
       <c r="C25">
-        <v>53.6662945009603</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="D25">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E25">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F25">
-        <v>1.148325873838808</v>
+        <v>1.951965116138829</v>
       </c>
       <c r="G25">
-        <v>8.62920274395813</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="H25">
-        <v>0.7761956126076477</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I25">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J25">
-        <v>1.802122128238224</v>
+        <v>3.06331121633915</v>
       </c>
       <c r="K25">
-        <v>9.076150521831812</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="L25">
-        <v>5.075150365889604</v>
+        <v>8.626920893333725</v>
       </c>
       <c r="M25">
-        <v>30.91173685619138</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="N25">
-        <v>0.04252253993540776</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O25">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P25">
-        <v>137.601988689528</v>
+        <v>233.900748866163</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1662,49 +1662,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.781767548292004</v>
+        <v>3.028711778223331</v>
       </c>
       <c r="C26">
-        <v>51.69126589622949</v>
+        <v>87.86665017064665</v>
       </c>
       <c r="D26">
-        <v>0.006244625814967771</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E26">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F26">
-        <v>1.763500449109598</v>
+        <v>2.997660714070344</v>
       </c>
       <c r="G26">
-        <v>13.25198992822141</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="H26">
-        <v>0.5987794725830425</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I26">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J26">
-        <v>3.587243104323255</v>
+        <v>6.097723270260007</v>
       </c>
       <c r="K26">
-        <v>18.06667698213692</v>
+        <v>30.71037937670806</v>
       </c>
       <c r="L26">
-        <v>11.95479863965106</v>
+        <v>20.32119143763056</v>
       </c>
       <c r="M26">
-        <v>72.81431348347299</v>
+        <v>123.7723568835022</v>
       </c>
       <c r="N26">
-        <v>0.180720794725483</v>
+        <v>0.3071956272183992</v>
       </c>
       <c r="O26">
-        <v>2.856130759185085</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="P26">
-        <v>197.6880635049521</v>
+        <v>336.0371934742896</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1712,49 +1712,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.454288532499204</v>
+        <v>2.472051313055801</v>
       </c>
       <c r="C27">
-        <v>42.19069726312802</v>
+        <v>71.71724608789937</v>
       </c>
       <c r="D27">
-        <v>0.007025204041838744</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E27">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F27">
-        <v>1.148325873838808</v>
+        <v>1.951965116138829</v>
       </c>
       <c r="G27">
-        <v>8.62920274395813</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="H27">
-        <v>0.587690963831505</v>
+        <v>0.9989779788155593</v>
       </c>
       <c r="I27">
-        <v>16.56342490475778</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="J27">
-        <v>3.468235039250921</v>
+        <v>5.89542913333195</v>
       </c>
       <c r="K27">
-        <v>17.4673085514499</v>
+        <v>29.69155162487414</v>
       </c>
       <c r="L27">
-        <v>10.3194724106422</v>
+        <v>17.54140581644524</v>
       </c>
       <c r="M27">
-        <v>62.85386494092245</v>
+        <v>106.8412325928345</v>
       </c>
       <c r="N27">
-        <v>0.1381982547900752</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O27">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P27">
-        <v>169.5528603240217</v>
+        <v>288.211975567231</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1762,49 +1762,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.562274444516901</v>
+        <v>2.655609602645094</v>
       </c>
       <c r="C28">
-        <v>45.3235012568389</v>
+        <v>77.04249761339307</v>
       </c>
       <c r="D28">
-        <v>0.01248925162993554</v>
+        <v>0.02122967361766182</v>
       </c>
       <c r="E28">
-        <v>4.517378930831788</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="F28">
-        <v>1.722488810758212</v>
+        <v>2.927947674208244</v>
       </c>
       <c r="G28">
-        <v>12.94380411593719</v>
+        <v>22.00233808194258</v>
       </c>
       <c r="H28">
-        <v>0.6542220163407315</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I28">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J28">
-        <v>2.584175127284999</v>
+        <v>4.39267268758067</v>
       </c>
       <c r="K28">
-        <v>13.01485735206071</v>
+        <v>22.12311689696504</v>
       </c>
       <c r="L28">
-        <v>9.191661218222285</v>
+        <v>15.62431228459331</v>
       </c>
       <c r="M28">
-        <v>55.98459008399104</v>
+        <v>95.16459515099466</v>
       </c>
       <c r="N28">
-        <v>0.09567571485466744</v>
+        <v>0.1626329791156231</v>
       </c>
       <c r="O28">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="P28">
-        <v>167.5577171596751</v>
+        <v>284.8205603363884</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1812,49 +1812,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.412033175622714</v>
+        <v>2.400224156259992</v>
       </c>
       <c r="C29">
-        <v>40.96481743950201</v>
+        <v>69.63345201270613</v>
       </c>
       <c r="D29">
-        <v>0.005984433072677447</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E29">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F29">
-        <v>1.558442257352668</v>
+        <v>2.649095514759839</v>
       </c>
       <c r="G29">
-        <v>11.71106086680032</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="H29">
-        <v>0.7096645600984208</v>
+        <v>1.206313031022562</v>
       </c>
       <c r="I29">
-        <v>20.00111686612262</v>
+        <v>33.99860901502915</v>
       </c>
       <c r="J29">
-        <v>2.278154388527565</v>
+        <v>3.872487764051379</v>
       </c>
       <c r="K29">
-        <v>11.47362424457984</v>
+        <v>19.50327410653497</v>
       </c>
       <c r="L29">
-        <v>5.808227640962546</v>
+        <v>9.873031689037484</v>
       </c>
       <c r="M29">
-        <v>35.37676551319678</v>
+        <v>60.13468282547513</v>
       </c>
       <c r="N29">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O29">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P29">
-        <v>133.8217454435963</v>
+        <v>227.4749570986131</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1862,49 +1862,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.482458770416864</v>
+        <v>2.519936084253009</v>
       </c>
       <c r="C30">
-        <v>43.00795047887867</v>
+        <v>73.10644213802814</v>
       </c>
       <c r="D30">
-        <v>0.006504818557258096</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E30">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F30">
-        <v>1.476418980649896</v>
+        <v>2.509669435035637</v>
       </c>
       <c r="G30">
-        <v>11.09468924223189</v>
+        <v>18.85914692737936</v>
       </c>
       <c r="H30">
-        <v>0.587690963831505</v>
+        <v>0.9989779788155593</v>
       </c>
       <c r="I30">
-        <v>16.56342490475778</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="J30">
-        <v>3.502237343557301</v>
+        <v>5.953227458168539</v>
       </c>
       <c r="K30">
-        <v>17.63855667450333</v>
+        <v>29.98264526825525</v>
       </c>
       <c r="L30">
-        <v>7.105210512245447</v>
+        <v>12.07768925066721</v>
       </c>
       <c r="M30">
-        <v>43.27643159866793</v>
+        <v>73.56281588359094</v>
       </c>
       <c r="N30">
-        <v>0.08504507987081551</v>
+        <v>0.144562648102776</v>
       </c>
       <c r="O30">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="P30">
-        <v>149.5234824283777</v>
+        <v>254.1653274502112</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1912,49 +1912,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.515324047987469</v>
+        <v>2.575801650649749</v>
       </c>
       <c r="C31">
-        <v>43.96141256392112</v>
+        <v>74.72717086317843</v>
       </c>
       <c r="D31">
-        <v>0.006504818557258096</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E31">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F31">
-        <v>1.558442257352668</v>
+        <v>2.649095514759839</v>
       </c>
       <c r="G31">
-        <v>11.71106086680032</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="H31">
-        <v>0.620956490086118</v>
+        <v>1.055523902144742</v>
       </c>
       <c r="I31">
-        <v>17.50097725785729</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="J31">
-        <v>2.788188953123289</v>
+        <v>4.739462636600196</v>
       </c>
       <c r="K31">
-        <v>14.0423460903813</v>
+        <v>23.86967875725176</v>
       </c>
       <c r="L31">
-        <v>6.597695475656485</v>
+        <v>11.21499716133384</v>
       </c>
       <c r="M31">
-        <v>40.18525791304877</v>
+        <v>68.30832903476305</v>
       </c>
       <c r="N31">
-        <v>0.2126126996770387</v>
+        <v>0.3614066202569401</v>
       </c>
       <c r="O31">
-        <v>3.360153834335394</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="P31">
-        <v>146.4137347952594</v>
+        <v>248.8792679455602</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1962,49 +1962,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.782941308205239</v>
+        <v>3.030706977023216</v>
       </c>
       <c r="C32">
-        <v>51.72531811355243</v>
+        <v>87.92453333940202</v>
       </c>
       <c r="D32">
-        <v>0.007025204041838744</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E32">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F32">
-        <v>0.9842793204332638</v>
+        <v>1.673112956690425</v>
       </c>
       <c r="G32">
-        <v>7.396459494821253</v>
+        <v>12.57276461825291</v>
       </c>
       <c r="H32">
-        <v>0.6763990338438073</v>
+        <v>1.14976710769338</v>
       </c>
       <c r="I32">
-        <v>19.06356451302313</v>
+        <v>32.40492421744965</v>
       </c>
       <c r="J32">
-        <v>3.298223517719013</v>
+        <v>5.606437509149012</v>
       </c>
       <c r="K32">
-        <v>16.61106793618275</v>
+        <v>28.23608340796854</v>
       </c>
       <c r="L32">
-        <v>6.202961558309516</v>
+        <v>10.54401442518566</v>
       </c>
       <c r="M32">
-        <v>37.78101171312277</v>
+        <v>64.22150593011909</v>
       </c>
       <c r="N32">
-        <v>0.1488288897739271</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O32">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P32">
-        <v>150.5712139356565</v>
+        <v>255.9462986883242</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2012,49 +2012,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.960179055103851</v>
+        <v>3.331981995805641</v>
       </c>
       <c r="C33">
-        <v>56.86720292931702</v>
+        <v>96.66489182146236</v>
       </c>
       <c r="D33">
-        <v>0.005203854845806476</v>
+        <v>0.008845697340692422</v>
       </c>
       <c r="E33">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="F33">
-        <v>2.706768131191476</v>
+        <v>4.601060630898668</v>
       </c>
       <c r="G33">
-        <v>20.34026361075845</v>
+        <v>34.57510270019549</v>
       </c>
       <c r="H33">
-        <v>0.6874875425953447</v>
+        <v>1.168615748803107</v>
       </c>
       <c r="I33">
-        <v>19.37608196405628</v>
+        <v>32.93615248330951</v>
       </c>
       <c r="J33">
-        <v>3.349226974178584</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K33">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L33">
-        <v>5.921008760204536</v>
+        <v>10.06474104222267</v>
       </c>
       <c r="M33">
-        <v>36.06369299888993</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="N33">
-        <v>0.1063063498385194</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O33">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P33">
-        <v>167.8136804300903</v>
+        <v>285.2556557968722</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2062,49 +2062,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.389775183348169</v>
+        <v>4.062224756563044</v>
       </c>
       <c r="C34">
-        <v>69.33031446951465</v>
+        <v>117.8501315859267</v>
       </c>
       <c r="D34">
-        <v>0.007025204041838744</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E34">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="F34">
-        <v>1.599453895704054</v>
+        <v>2.71880855462194</v>
       </c>
       <c r="G34">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H34">
-        <v>0.6985760513468828</v>
+        <v>1.187464389912835</v>
       </c>
       <c r="I34">
-        <v>19.68859941508945</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="J34">
-        <v>2.006135954076513</v>
+        <v>3.410101165358678</v>
       </c>
       <c r="K34">
-        <v>10.10363926015239</v>
+        <v>17.17452495948602</v>
       </c>
       <c r="L34">
-        <v>2.255622384839824</v>
+        <v>3.83418706370388</v>
       </c>
       <c r="M34">
-        <v>13.73854971386283</v>
+        <v>23.35327488367967</v>
       </c>
       <c r="N34">
-        <v>0.2338739696447427</v>
+        <v>0.397547282282634</v>
       </c>
       <c r="O34">
-        <v>3.696169217768932</v>
+        <v>6.282879747638476</v>
       </c>
       <c r="P34">
-        <v>140.3080070470677</v>
+        <v>238.5005350051718</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2112,49 +2112,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.301743189855479</v>
+        <v>3.912584846571772</v>
       </c>
       <c r="C35">
-        <v>66.77639817029383</v>
+        <v>113.5088939292741</v>
       </c>
       <c r="D35">
-        <v>0.006244625814967771</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E35">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F35">
-        <v>1.353384065595738</v>
+        <v>2.300530315449334</v>
       </c>
       <c r="G35">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H35">
-        <v>0.820549647613799</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I35">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J35">
-        <v>1.428096780868026</v>
+        <v>2.427529643136686</v>
       </c>
       <c r="K35">
-        <v>7.192421168244076</v>
+        <v>12.225933022007</v>
       </c>
       <c r="L35">
-        <v>1.40976399052489</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M35">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N35">
-        <v>0.04252253993540776</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O35">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P35">
-        <v>126.144861164027</v>
+        <v>214.4255164687859</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2162,49 +2162,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.656175237575768</v>
+        <v>2.815225506635787</v>
       </c>
       <c r="C36">
-        <v>48.04767864267445</v>
+        <v>81.67315111382244</v>
       </c>
       <c r="D36">
-        <v>0.008586360495580689</v>
+        <v>0.0145954006121425</v>
       </c>
       <c r="E36">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="F36">
-        <v>1.189337512190194</v>
+        <v>2.021678156000931</v>
       </c>
       <c r="G36">
-        <v>8.937388556242347</v>
+        <v>15.19209058038892</v>
       </c>
       <c r="H36">
-        <v>0.7761956126076477</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I36">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J36">
-        <v>0.9010610641191118</v>
+        <v>1.531655608169575</v>
       </c>
       <c r="K36">
-        <v>4.538075260915906</v>
+        <v>7.713981549599653</v>
       </c>
       <c r="L36">
-        <v>1.91727902711385</v>
+        <v>3.259059004148297</v>
       </c>
       <c r="M36">
-        <v>11.67776725678341</v>
+        <v>19.85028365112771</v>
       </c>
       <c r="N36">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O36">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P36">
-        <v>104.988740771388</v>
+        <v>178.4635914263643</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2212,49 +2212,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.194887591674084</v>
+        <v>2.031112378281522</v>
       </c>
       <c r="C37">
-        <v>34.66515723475732</v>
+        <v>58.92506579296334</v>
       </c>
       <c r="D37">
-        <v>0.01353002259909684</v>
+        <v>0.0229988130858003</v>
       </c>
       <c r="E37">
-        <v>4.893827175067772</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="F37">
-        <v>0.8612444053791062</v>
+        <v>1.463973837104122</v>
       </c>
       <c r="G37">
-        <v>6.471902057968596</v>
+        <v>11.00116904097129</v>
       </c>
       <c r="H37">
-        <v>0.6653105250922693</v>
+        <v>1.130918466583652</v>
       </c>
       <c r="I37">
-        <v>18.75104706198995</v>
+        <v>31.87369595158984</v>
       </c>
       <c r="J37">
-        <v>0.7310495425872036</v>
+        <v>1.242663983986636</v>
       </c>
       <c r="K37">
-        <v>3.681834645648753</v>
+        <v>6.258513332694057</v>
       </c>
       <c r="L37">
-        <v>1.973669586734845</v>
+        <v>3.354913680740894</v>
       </c>
       <c r="M37">
-        <v>12.02123099962998</v>
+        <v>20.43411552321971</v>
       </c>
       <c r="N37">
-        <v>0.05315317491925969</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O37">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P37">
-        <v>86.81788248263209</v>
+        <v>147.5761209634873</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2262,49 +2262,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.8955788137989442</v>
+        <v>1.522336684311201</v>
       </c>
       <c r="C38">
-        <v>25.98184181740652</v>
+        <v>44.16485776034481</v>
       </c>
       <c r="D38">
-        <v>0.007805782268709712</v>
+        <v>0.01326854601103864</v>
       </c>
       <c r="E38">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="F38">
-        <v>0.4511280218652461</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G38">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H38">
-        <v>0.6542220163407315</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I38">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J38">
-        <v>0.4590311081361511</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K38">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L38">
-        <v>1.015030073177921</v>
+        <v>1.725384178666745</v>
       </c>
       <c r="M38">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="N38">
-        <v>0.05315317491925969</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O38">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P38">
-        <v>63.50396167680998</v>
+        <v>107.946290120038</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2312,49 +2312,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.5645785182664383</v>
+        <v>0.9596906227440201</v>
       </c>
       <c r="C39">
-        <v>16.37911653233622</v>
+        <v>27.84180417133139</v>
       </c>
       <c r="D39">
-        <v>0.01040770969161295</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E39">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F39">
-        <v>0.4511280218652461</v>
+        <v>0.7668434384831115</v>
       </c>
       <c r="G39">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H39">
-        <v>0.3659207888007483</v>
+        <v>0.6220051566210086</v>
       </c>
       <c r="I39">
-        <v>10.31307588409447</v>
+        <v>17.53053277337441</v>
       </c>
       <c r="J39">
-        <v>0.4080276516765789</v>
+        <v>0.6935798980390531</v>
       </c>
       <c r="K39">
-        <v>2.054977476641165</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="L39">
-        <v>0.7330772750729425</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M39">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="N39">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O39">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P39">
-        <v>43.25714154633831</v>
+        <v>73.5300259673366</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2362,49 +2362,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.3321740554457423</v>
+        <v>0.5646412603670639</v>
       </c>
       <c r="C40">
-        <v>9.636777502393244</v>
+        <v>16.38093675776878</v>
       </c>
       <c r="D40">
-        <v>0.005984433072677447</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E40">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F40">
-        <v>0.164046553405544</v>
+        <v>0.2788521594484041</v>
       </c>
       <c r="G40">
-        <v>1.232743249136876</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="H40">
-        <v>0.1663276312730673</v>
+        <v>0.282729616645913</v>
       </c>
       <c r="I40">
-        <v>4.687761765497489</v>
+        <v>7.968423987897459</v>
       </c>
       <c r="J40">
-        <v>0.3740253473701972</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K40">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L40">
-        <v>1.240592311661903</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M40">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="N40">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O40">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P40">
-        <v>29.80221860322717</v>
+        <v>50.65886994479489</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2412,49 +2412,49 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.2007129451633284</v>
+        <v>0.3411789947800986</v>
       </c>
       <c r="C41">
-        <v>5.822929162223479</v>
+        <v>9.898021857167707</v>
       </c>
       <c r="D41">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E41">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F41">
-        <v>0.041011638351386</v>
+        <v>0.06971303986210103</v>
       </c>
       <c r="G41">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="H41">
-        <v>0.06653105250922695</v>
+        <v>0.1130918466583652</v>
       </c>
       <c r="I41">
-        <v>1.875104706198995</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="J41">
-        <v>0.544036868902105</v>
+        <v>0.924773197385404</v>
       </c>
       <c r="K41">
-        <v>2.739969968854886</v>
+        <v>4.657498294097903</v>
       </c>
       <c r="L41">
-        <v>1.184201752040908</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M41">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="N41">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O41">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P41">
-        <v>21.778389147629</v>
+        <v>37.01967957907002</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,43 +2462,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1502412688941873</v>
+        <v>0.255385446385103</v>
       </c>
       <c r="C42">
-        <v>4.358683817336872</v>
+        <v>7.409045600686938</v>
       </c>
       <c r="D42">
-        <v>0.00676501129954842</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E42">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F42">
-        <v>0.082023276702772</v>
+        <v>0.1394260797242021</v>
       </c>
       <c r="G42">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H42">
-        <v>0.02217701750307565</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I42">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J42">
-        <v>0.4590311081361511</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K42">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L42">
-        <v>0.8458583943149337</v>
+        <v>1.437820148888954</v>
       </c>
       <c r="M42">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="P42">
-        <v>17.07690581227607</v>
+        <v>29.02793117925545</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2506,43 +2506,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.08803199349268792</v>
+        <v>0.1496399099912714</v>
       </c>
       <c r="C43">
-        <v>2.553916299220825</v>
+        <v>4.341237656652502</v>
       </c>
       <c r="D43">
-        <v>0.003122312907483885</v>
+        <v>0.005307418404415455</v>
       </c>
       <c r="E43">
-        <v>1.129344732707947</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="F43">
-        <v>0.123034915054158</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G43">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H43">
-        <v>0.01108850875153783</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I43">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J43">
-        <v>0.3570241952170064</v>
+        <v>0.6068824107841715</v>
       </c>
       <c r="K43">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="L43">
-        <v>1.240592311661903</v>
+        <v>2.108802885037132</v>
       </c>
       <c r="M43">
-        <v>7.556202342624556</v>
+        <v>12.84430118602382</v>
       </c>
       <c r="P43">
-        <v>16.09753779158495</v>
+        <v>27.36316662434712</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2550,43 +2550,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1197235111500555</v>
+        <v>0.2035102775881291</v>
       </c>
       <c r="C44">
-        <v>3.473326166940321</v>
+        <v>5.904083213047406</v>
       </c>
       <c r="D44">
-        <v>0.002341734680612914</v>
+        <v>0.00398056380331159</v>
       </c>
       <c r="E44">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="F44">
-        <v>0.123034915054158</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G44">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H44">
-        <v>0.0887080700123026</v>
+        <v>0.1507891288778203</v>
       </c>
       <c r="I44">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="J44">
-        <v>0.3400230430638157</v>
+        <v>0.5779832483658773</v>
       </c>
       <c r="K44">
-        <v>1.712481230534304</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="L44">
-        <v>0.6766867154519475</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M44">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="P44">
-        <v>14.92959589569531</v>
+        <v>25.37785749704129</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2594,49 +2594,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2406207822133468</v>
+        <v>0.4090157539761416</v>
       </c>
       <c r="C45">
-        <v>6.980704551203585</v>
+        <v>11.86604959485017</v>
       </c>
       <c r="D45">
-        <v>0.003642698392064533</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E45">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F45">
-        <v>0.123034915054158</v>
+        <v>0.2091391195863031</v>
       </c>
       <c r="G45">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H45">
-        <v>0.05544254375768912</v>
+        <v>0.09424320554863769</v>
       </c>
       <c r="I45">
-        <v>1.56258725516583</v>
+        <v>2.656141329299152</v>
       </c>
       <c r="J45">
-        <v>0.4590311081361511</v>
+        <v>0.7802773852939345</v>
       </c>
       <c r="K45">
-        <v>2.311849661221311</v>
+        <v>3.929764185645107</v>
       </c>
       <c r="L45">
-        <v>1.40976399052489</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M45">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N45">
-        <v>0.03189190495155583</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O45">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P45">
-        <v>24.51131234861375</v>
+        <v>41.66519952679657</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2644,49 +2644,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.7136460272473897</v>
+        <v>1.21308087032924</v>
       </c>
       <c r="C46">
-        <v>20.70374813235015</v>
+        <v>35.19296660326297</v>
       </c>
       <c r="D46">
-        <v>0.004683469361225829</v>
+        <v>0.007961127606623181</v>
       </c>
       <c r="E46">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="F46">
-        <v>0.779221128676334</v>
+        <v>1.32454775737992</v>
       </c>
       <c r="G46">
-        <v>5.855530433400159</v>
+        <v>9.953438656116884</v>
       </c>
       <c r="H46">
-        <v>0.243947192533832</v>
+        <v>0.4146701044140058</v>
       </c>
       <c r="I46">
-        <v>6.875383922729651</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="J46">
-        <v>1.054071433497828</v>
+        <v>1.79174806993422</v>
       </c>
       <c r="K46">
-        <v>5.308691814656343</v>
+        <v>9.023902944814688</v>
       </c>
       <c r="L46">
-        <v>2.70674686180779</v>
+        <v>4.601024476444655</v>
       </c>
       <c r="M46">
-        <v>16.48625965663539</v>
+        <v>28.02392986041559</v>
       </c>
       <c r="N46">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O46">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P46">
-        <v>62.60458549865864</v>
+        <v>106.4174985408943</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2694,49 +2694,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.211320230459385</v>
+        <v>2.059045161479893</v>
       </c>
       <c r="C47">
-        <v>35.14188827727855</v>
+        <v>59.73543015553847</v>
       </c>
       <c r="D47">
-        <v>0.00338250564977421</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E47">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F47">
-        <v>1.066302597136036</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G47">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H47">
-        <v>0.6542220163407315</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I47">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J47">
-        <v>1.445097933021217</v>
+        <v>2.45642880555498</v>
       </c>
       <c r="K47">
-        <v>7.278045229770792</v>
+        <v>12.37147984369756</v>
       </c>
       <c r="L47">
-        <v>3.721776934985709</v>
+        <v>6.326408655111401</v>
       </c>
       <c r="M47">
-        <v>22.66860702787367</v>
+        <v>38.53290355807145</v>
       </c>
       <c r="N47">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O47">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P47">
-        <v>103.0091201970368</v>
+        <v>175.0985620454564</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2744,49 +2744,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.902664819355293</v>
+        <v>3.234217254611344</v>
       </c>
       <c r="C48">
-        <v>55.19864428049274</v>
+        <v>93.82861655244939</v>
       </c>
       <c r="D48">
-        <v>0.00338250564977421</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E48">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F48">
-        <v>1.066302597136036</v>
+        <v>1.812539036414627</v>
       </c>
       <c r="G48">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H48">
-        <v>0.820549647613799</v>
+        <v>1.394799442119838</v>
       </c>
       <c r="I48">
-        <v>23.12629137645428</v>
+        <v>39.31089167362747</v>
       </c>
       <c r="J48">
-        <v>2.159146323455229</v>
+        <v>3.670193627123323</v>
       </c>
       <c r="K48">
-        <v>10.87425581389283</v>
+        <v>18.48444635470106</v>
       </c>
       <c r="L48">
-        <v>4.22929197157467</v>
+        <v>7.189100744444771</v>
       </c>
       <c r="M48">
-        <v>25.75978071349281</v>
+        <v>43.78739040689937</v>
       </c>
       <c r="N48">
-        <v>0.2232433346608907</v>
+        <v>0.3794769512697871</v>
       </c>
       <c r="O48">
-        <v>3.528161526052164</v>
+        <v>5.997294304564</v>
       </c>
       <c r="P48">
-        <v>138.1280028229872</v>
+        <v>234.7948863775612</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2794,49 +2794,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.849845623259682</v>
+        <v>3.144433308616582</v>
       </c>
       <c r="C49">
-        <v>53.6662945009603</v>
+        <v>91.22387395845793</v>
       </c>
       <c r="D49">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E49">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F49">
-        <v>1.148325873838808</v>
+        <v>1.951965116138829</v>
       </c>
       <c r="G49">
-        <v>8.62920274395813</v>
+        <v>14.66822538796172</v>
       </c>
       <c r="H49">
-        <v>0.7761956126076477</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I49">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J49">
-        <v>1.802122128238224</v>
+        <v>3.06331121633915</v>
       </c>
       <c r="K49">
-        <v>9.076150521831812</v>
+        <v>15.42796309919931</v>
       </c>
       <c r="L49">
-        <v>5.075150365889604</v>
+        <v>8.626920893333725</v>
       </c>
       <c r="M49">
-        <v>30.91173685619138</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="N49">
-        <v>0.04252253993540776</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O49">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P49">
-        <v>137.601988689528</v>
+        <v>233.900748866163</v>
       </c>
     </row>
   </sheetData>
